--- a/figures/figure_xlsx/figures-Dan.xlsx
+++ b/figures/figure_xlsx/figures-Dan.xlsx
@@ -1,31 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="27795" windowHeight="11070" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="80" windowWidth="27800" windowHeight="11080" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
-  <si>
-    <t>change orientation</t>
-  </si>
-  <si>
-    <t>enable copy</t>
-  </si>
-  <si>
-    <t>star article</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>translation suggestion</t>
   </si>
@@ -49,7 +45,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +58,19 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -99,7 +108,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -107,6 +116,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -124,7 +137,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -148,71 +161,53 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$1:$A$9</c:f>
+              <c:f>Sheet1!$A$1:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>translation suggestion</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>like article</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>undo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>text to speech</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>alternatives</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>translation</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>alternatives</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>text to speech</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>undo</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>like article</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>translation suggestion</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>change orientation</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>enable copy</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>star article</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$B$9</c:f>
+              <c:f>Sheet1!$B$1:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6721</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1146</c:v>
+                  <c:v>174.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>296</c:v>
+                  <c:v>288.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>288</c:v>
+                  <c:v>296.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>174</c:v>
+                  <c:v>1146.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>29</c:v>
+                  <c:v>6721.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -228,11 +223,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="137238016"/>
-        <c:axId val="81642624"/>
+        <c:axId val="2125639240"/>
+        <c:axId val="2125644840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="137238016"/>
+        <c:axId val="2125639240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -261,7 +256,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81642624"/>
+        <c:crossAx val="2125644840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -269,9 +264,9 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81642624"/>
+        <c:axId val="2125644840"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -300,7 +295,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137238016"/>
+        <c:crossAx val="2125639240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -320,7 +315,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -342,73 +337,90 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="bg1"/>
+                </a:solidFill>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr/>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+            </c:dLbl>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$1:$A$9</c:f>
+              <c:f>Sheet1!$A$1:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>translation suggestion</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>like article</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>undo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>text to speech</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>alternatives</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>translation</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>alternatives</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>text to speech</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>undo</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>like article</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>translation suggestion</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>change orientation</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>enable copy</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>star article</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$1:$B$9</c:f>
+              <c:f>Sheet1!$B$1:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>6721</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1146</c:v>
+                  <c:v>174.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>296</c:v>
+                  <c:v>288.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>288</c:v>
+                  <c:v>296.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>174</c:v>
+                  <c:v>1146.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>29</c:v>
+                  <c:v>6721.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -424,35 +436,16 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="137239040"/>
-        <c:axId val="81644352"/>
+        <c:axId val="2125667288"/>
+        <c:axId val="2125672808"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="137239040"/>
+        <c:axId val="2125667288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="nl-NL" sz="1200"/>
-                  <a:t>Number of times used</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -463,10 +456,10 @@
             <a:pPr>
               <a:defRPr sz="1200"/>
             </a:pPr>
-            <a:endParaRPr lang="nl-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="81644352"/>
+        <c:crossAx val="2125672808"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -474,10 +467,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81644352"/>
+        <c:axId val="2125672808"/>
         <c:scaling>
-          <c:logBase val="10"/>
+          <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
+          <c:max val="10000.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -493,7 +487,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="nl-NL" sz="1200"/>
-                  <a:t>Event</a:t>
+                  <a:t>Number of times a feature was used (log scale)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -505,7 +499,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137239040"/>
+        <c:crossAx val="2125667288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -514,6 +508,11 @@
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -525,7 +524,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -557,1492 +556,1492 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="496"/>
                 <c:pt idx="0">
-                  <c:v>27</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>27</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>31</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>31</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>27</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>31</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>37</c:v>
+                  <c:v>37.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>37</c:v>
+                  <c:v>37.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>37</c:v>
+                  <c:v>37.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>31</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>27</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>31</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>34</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>34</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>34</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>34</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>34</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>37</c:v>
+                  <c:v>37.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>42</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>53</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>55</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>27</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>42</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>31</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>31</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>31</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>31</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>31</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>31</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>38</c:v>
+                  <c:v>38.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>31</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>31</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>31</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>42</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>42</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>31</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>41</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>49</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>27</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>34</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>41</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>41</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>52</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>54</c:v>
+                  <c:v>54.0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>54</c:v>
+                  <c:v>54.0</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>19</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>19</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>23</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>41</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>52</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>52</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>54</c:v>
+                  <c:v>54.0</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>37</c:v>
+                  <c:v>37.0</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>41</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>49</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>49</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>49</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>53</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>53</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>31</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>34</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>41</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>43</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>43</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>49</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>51</c:v>
+                  <c:v>51.0</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>51</c:v>
+                  <c:v>51.0</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>52</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>53</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>53</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>53</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>53</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>54</c:v>
+                  <c:v>54.0</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>19</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>37</c:v>
+                  <c:v>37.0</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>31</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>37</c:v>
+                  <c:v>37.0</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>41</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>51</c:v>
+                  <c:v>51.0</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>51</c:v>
+                  <c:v>51.0</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>51</c:v>
+                  <c:v>51.0</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>52</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>54</c:v>
+                  <c:v>54.0</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>39</c:v>
+                  <c:v>39.0</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>27</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>46</c:v>
+                  <c:v>46.0</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>47</c:v>
+                  <c:v>47.0</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>49</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>53</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>38</c:v>
+                  <c:v>38.0</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>41</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>41</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>49</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>51</c:v>
+                  <c:v>51.0</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>51</c:v>
+                  <c:v>51.0</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>27</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>23</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>49</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>49</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>53</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>55</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>41</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>41</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>41</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>53</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>27</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>41</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>41</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>41</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>41</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>42</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>52</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>54</c:v>
+                  <c:v>54.0</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>54</c:v>
+                  <c:v>54.0</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>27</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>51</c:v>
+                  <c:v>51.0</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>41</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>41</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>47</c:v>
+                  <c:v>47.0</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>47</c:v>
+                  <c:v>47.0</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>52</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>52</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>52</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>52</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>54</c:v>
+                  <c:v>54.0</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>35</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>35</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>39</c:v>
+                  <c:v>39.0</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>39</c:v>
+                  <c:v>39.0</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>39</c:v>
+                  <c:v>39.0</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>39</c:v>
+                  <c:v>39.0</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>27</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>27</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>53</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>38</c:v>
+                  <c:v>38.0</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>23</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>23</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>23</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>53</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>53</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>55</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>55</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>53</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>53</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>53</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>29</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>56</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>27</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>56</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>27</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>56</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>56</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>27</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>27</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>34</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>27</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>36</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>36</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>56</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>36</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>36</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>36</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>36</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="365">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="366">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="367">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="368">
-                  <c:v>27</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="369">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="370">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="371">
-                  <c:v>27</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="372">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="373">
-                  <c:v>56</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="374">
-                  <c:v>29</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="375">
-                  <c:v>36</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="376">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="377">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="378">
-                  <c:v>36</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="379">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="380">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="381">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="382">
-                  <c:v>29</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="383">
-                  <c:v>29</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="384">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="385">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="386">
-                  <c:v>29</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="387">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="388">
-                  <c:v>27</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="389">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="390">
-                  <c:v>56</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="391">
-                  <c:v>56</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="392">
-                  <c:v>56</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="393">
-                  <c:v>56</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="394">
-                  <c:v>56</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="395">
-                  <c:v>56</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="396">
-                  <c:v>56</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="397">
-                  <c:v>29</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="398">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="399">
-                  <c:v>29</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="400">
-                  <c:v>36</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="401">
-                  <c:v>36</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="402">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="403">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="404">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="405">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="406">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="407">
-                  <c:v>36</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="408">
-                  <c:v>36</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="409">
-                  <c:v>36</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="410">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="411">
-                  <c:v>29</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="412">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="413">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="414">
-                  <c:v>29</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="415">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="416">
-                  <c:v>56</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="417">
-                  <c:v>56</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="418">
-                  <c:v>29</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="419">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="420">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="421">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="422">
-                  <c:v>29</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="423">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="424">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="425">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="426">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="427">
-                  <c:v>29</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="428">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="429">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="430">
-                  <c:v>53</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="431">
-                  <c:v>53</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="432">
-                  <c:v>53</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="433">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="434">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="435">
-                  <c:v>42</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="436">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="437">
-                  <c:v>29</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="438">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="439">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="440">
-                  <c:v>56</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="441">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="442">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="443">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="444">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="445">
-                  <c:v>53</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="446">
-                  <c:v>53</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="447">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="448">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="449">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="450">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="451">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="452">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="453">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="454">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="455">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="456">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="457">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="458">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="459">
-                  <c:v>46</c:v>
+                  <c:v>46.0</c:v>
                 </c:pt>
                 <c:pt idx="460">
-                  <c:v>46</c:v>
+                  <c:v>46.0</c:v>
                 </c:pt>
                 <c:pt idx="461">
-                  <c:v>29</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="462">
-                  <c:v>29</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="463">
-                  <c:v>29</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="464">
-                  <c:v>56</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="465">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="466">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="467">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="468">
-                  <c:v>36</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="469">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="470">
-                  <c:v>56</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="471">
-                  <c:v>56</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="472">
-                  <c:v>56</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="473">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="474">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="475">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="476">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="477">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="478">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="479">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="480">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="481">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="482">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="483">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="484">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="485">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="486">
-                  <c:v>27</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="487">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="488">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="489">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="490">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="491">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="492">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="493">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="494">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="495">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2054,1492 +2053,1492 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="496"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>2.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3</c:v>
+                  <c:v>3.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>4.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5</c:v>
+                  <c:v>5.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>7</c:v>
+                  <c:v>7.0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>9</c:v>
+                  <c:v>9.0</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>10</c:v>
+                  <c:v>10.0</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>11</c:v>
+                  <c:v>11.0</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>13</c:v>
+                  <c:v>13.0</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>14</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>15</c:v>
+                  <c:v>15.0</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>17</c:v>
+                  <c:v>17.0</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>19</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>20</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>21</c:v>
+                  <c:v>21.0</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>22</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>23</c:v>
+                  <c:v>23.0</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>25</c:v>
+                  <c:v>25.0</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>26</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>26</c:v>
+                  <c:v>26.0</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>27</c:v>
+                  <c:v>27.0</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>28</c:v>
+                  <c:v>28.0</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>29</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>29</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>30</c:v>
+                  <c:v>30.0</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>31</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>31</c:v>
+                  <c:v>31.0</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>33</c:v>
+                  <c:v>33.0</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>34</c:v>
+                  <c:v>34.0</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>35</c:v>
+                  <c:v>35.0</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>36</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>37</c:v>
+                  <c:v>37.0</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>38</c:v>
+                  <c:v>38.0</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>39</c:v>
+                  <c:v>39.0</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>39</c:v>
+                  <c:v>39.0</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>40</c:v>
+                  <c:v>40.0</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>41</c:v>
+                  <c:v>41.0</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>42</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>42</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>42</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>42</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>42</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>42</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>42</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>42</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>42</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>42</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>42</c:v>
+                  <c:v>42.0</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>43</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>43</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>43</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>43</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>43</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>43</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>43</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>43</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>43</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>43</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>43</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>43</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>43</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>43</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>43</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>43</c:v>
+                  <c:v>43.0</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>44</c:v>
+                  <c:v>44.0</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>45</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>46</c:v>
+                  <c:v>46.0</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>47</c:v>
+                  <c:v>47.0</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>47</c:v>
+                  <c:v>47.0</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>48</c:v>
+                  <c:v>48.0</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>49</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>49</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>49</c:v>
+                  <c:v>49.0</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>50</c:v>
+                  <c:v>50.0</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>51</c:v>
+                  <c:v>51.0</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>52</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>52</c:v>
+                  <c:v>52.0</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>53</c:v>
+                  <c:v>53.0</c:v>
                 </c:pt>
                 <c:pt idx="174">
-                  <c:v>54</c:v>
+                  <c:v>54.0</c:v>
                 </c:pt>
                 <c:pt idx="175">
-                  <c:v>54</c:v>
+                  <c:v>54.0</c:v>
                 </c:pt>
                 <c:pt idx="176">
-                  <c:v>54</c:v>
+                  <c:v>54.0</c:v>
                 </c:pt>
                 <c:pt idx="177">
-                  <c:v>54</c:v>
+                  <c:v>54.0</c:v>
                 </c:pt>
                 <c:pt idx="178">
-                  <c:v>54</c:v>
+                  <c:v>54.0</c:v>
                 </c:pt>
                 <c:pt idx="179">
-                  <c:v>54</c:v>
+                  <c:v>54.0</c:v>
                 </c:pt>
                 <c:pt idx="180">
-                  <c:v>54</c:v>
+                  <c:v>54.0</c:v>
                 </c:pt>
                 <c:pt idx="181">
-                  <c:v>55</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="182">
-                  <c:v>55</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="183">
-                  <c:v>55</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="184">
-                  <c:v>55</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="185">
-                  <c:v>55</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="186">
-                  <c:v>55</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="187">
-                  <c:v>55</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="188">
-                  <c:v>55</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="189">
-                  <c:v>55</c:v>
+                  <c:v>55.0</c:v>
                 </c:pt>
                 <c:pt idx="190">
-                  <c:v>56</c:v>
+                  <c:v>56.0</c:v>
                 </c:pt>
                 <c:pt idx="191">
-                  <c:v>57</c:v>
+                  <c:v>57.0</c:v>
                 </c:pt>
                 <c:pt idx="192">
-                  <c:v>58</c:v>
+                  <c:v>58.0</c:v>
                 </c:pt>
                 <c:pt idx="193">
-                  <c:v>58</c:v>
+                  <c:v>58.0</c:v>
                 </c:pt>
                 <c:pt idx="194">
-                  <c:v>58</c:v>
+                  <c:v>58.0</c:v>
                 </c:pt>
                 <c:pt idx="195">
-                  <c:v>58</c:v>
+                  <c:v>58.0</c:v>
                 </c:pt>
                 <c:pt idx="196">
-                  <c:v>58</c:v>
+                  <c:v>58.0</c:v>
                 </c:pt>
                 <c:pt idx="197">
-                  <c:v>59</c:v>
+                  <c:v>59.0</c:v>
                 </c:pt>
                 <c:pt idx="198">
-                  <c:v>59</c:v>
+                  <c:v>59.0</c:v>
                 </c:pt>
                 <c:pt idx="199">
-                  <c:v>59</c:v>
+                  <c:v>59.0</c:v>
                 </c:pt>
                 <c:pt idx="200">
-                  <c:v>59</c:v>
+                  <c:v>59.0</c:v>
                 </c:pt>
                 <c:pt idx="201">
-                  <c:v>59</c:v>
+                  <c:v>59.0</c:v>
                 </c:pt>
                 <c:pt idx="202">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="203">
-                  <c:v>60</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="204">
-                  <c:v>61</c:v>
+                  <c:v>61.0</c:v>
                 </c:pt>
                 <c:pt idx="205">
-                  <c:v>61</c:v>
+                  <c:v>61.0</c:v>
                 </c:pt>
                 <c:pt idx="206">
-                  <c:v>61</c:v>
+                  <c:v>61.0</c:v>
                 </c:pt>
                 <c:pt idx="207">
-                  <c:v>61</c:v>
+                  <c:v>61.0</c:v>
                 </c:pt>
                 <c:pt idx="208">
-                  <c:v>61</c:v>
+                  <c:v>61.0</c:v>
                 </c:pt>
                 <c:pt idx="209">
-                  <c:v>61</c:v>
+                  <c:v>61.0</c:v>
                 </c:pt>
                 <c:pt idx="210">
-                  <c:v>61</c:v>
+                  <c:v>61.0</c:v>
                 </c:pt>
                 <c:pt idx="211">
-                  <c:v>61</c:v>
+                  <c:v>61.0</c:v>
                 </c:pt>
                 <c:pt idx="212">
-                  <c:v>61</c:v>
+                  <c:v>61.0</c:v>
                 </c:pt>
                 <c:pt idx="213">
-                  <c:v>61</c:v>
+                  <c:v>61.0</c:v>
                 </c:pt>
                 <c:pt idx="214">
-                  <c:v>62</c:v>
+                  <c:v>62.0</c:v>
                 </c:pt>
                 <c:pt idx="215">
-                  <c:v>63</c:v>
+                  <c:v>63.0</c:v>
                 </c:pt>
                 <c:pt idx="216">
-                  <c:v>63</c:v>
+                  <c:v>63.0</c:v>
                 </c:pt>
                 <c:pt idx="217">
-                  <c:v>63</c:v>
+                  <c:v>63.0</c:v>
                 </c:pt>
                 <c:pt idx="218">
-                  <c:v>64</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="219">
-                  <c:v>64</c:v>
+                  <c:v>64.0</c:v>
                 </c:pt>
                 <c:pt idx="220">
-                  <c:v>65</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="221">
-                  <c:v>65</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="222">
-                  <c:v>65</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="223">
-                  <c:v>65</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="224">
-                  <c:v>65</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="225">
-                  <c:v>65</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="226">
-                  <c:v>65</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="227">
-                  <c:v>65</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="228">
-                  <c:v>65</c:v>
+                  <c:v>65.0</c:v>
                 </c:pt>
                 <c:pt idx="229">
-                  <c:v>66</c:v>
+                  <c:v>66.0</c:v>
                 </c:pt>
                 <c:pt idx="230">
-                  <c:v>66</c:v>
+                  <c:v>66.0</c:v>
                 </c:pt>
                 <c:pt idx="231">
-                  <c:v>67</c:v>
+                  <c:v>67.0</c:v>
                 </c:pt>
                 <c:pt idx="232">
-                  <c:v>68</c:v>
+                  <c:v>68.0</c:v>
                 </c:pt>
                 <c:pt idx="233">
-                  <c:v>69</c:v>
+                  <c:v>69.0</c:v>
                 </c:pt>
                 <c:pt idx="234">
-                  <c:v>70</c:v>
+                  <c:v>70.0</c:v>
                 </c:pt>
                 <c:pt idx="235">
-                  <c:v>71</c:v>
+                  <c:v>71.0</c:v>
                 </c:pt>
                 <c:pt idx="236">
-                  <c:v>72</c:v>
+                  <c:v>72.0</c:v>
                 </c:pt>
                 <c:pt idx="237">
-                  <c:v>73</c:v>
+                  <c:v>73.0</c:v>
                 </c:pt>
                 <c:pt idx="238">
-                  <c:v>74</c:v>
+                  <c:v>74.0</c:v>
                 </c:pt>
                 <c:pt idx="239">
-                  <c:v>75</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="240">
-                  <c:v>76</c:v>
+                  <c:v>76.0</c:v>
                 </c:pt>
                 <c:pt idx="241">
-                  <c:v>77</c:v>
+                  <c:v>77.0</c:v>
                 </c:pt>
                 <c:pt idx="242">
-                  <c:v>78</c:v>
+                  <c:v>78.0</c:v>
                 </c:pt>
                 <c:pt idx="243">
-                  <c:v>78</c:v>
+                  <c:v>78.0</c:v>
                 </c:pt>
                 <c:pt idx="244">
-                  <c:v>78</c:v>
+                  <c:v>78.0</c:v>
                 </c:pt>
                 <c:pt idx="245">
-                  <c:v>79</c:v>
+                  <c:v>79.0</c:v>
                 </c:pt>
                 <c:pt idx="246">
-                  <c:v>80</c:v>
+                  <c:v>80.0</c:v>
                 </c:pt>
                 <c:pt idx="247">
-                  <c:v>81</c:v>
+                  <c:v>81.0</c:v>
                 </c:pt>
                 <c:pt idx="248">
-                  <c:v>82</c:v>
+                  <c:v>82.0</c:v>
                 </c:pt>
                 <c:pt idx="249">
-                  <c:v>83</c:v>
+                  <c:v>83.0</c:v>
                 </c:pt>
                 <c:pt idx="250">
-                  <c:v>83</c:v>
+                  <c:v>83.0</c:v>
                 </c:pt>
                 <c:pt idx="251">
-                  <c:v>83</c:v>
+                  <c:v>83.0</c:v>
                 </c:pt>
                 <c:pt idx="252">
-                  <c:v>84</c:v>
+                  <c:v>84.0</c:v>
                 </c:pt>
                 <c:pt idx="253">
-                  <c:v>85</c:v>
+                  <c:v>85.0</c:v>
                 </c:pt>
                 <c:pt idx="254">
-                  <c:v>86</c:v>
+                  <c:v>86.0</c:v>
                 </c:pt>
                 <c:pt idx="255">
-                  <c:v>87</c:v>
+                  <c:v>87.0</c:v>
                 </c:pt>
                 <c:pt idx="256">
-                  <c:v>88</c:v>
+                  <c:v>88.0</c:v>
                 </c:pt>
                 <c:pt idx="257">
-                  <c:v>89</c:v>
+                  <c:v>89.0</c:v>
                 </c:pt>
                 <c:pt idx="258">
-                  <c:v>90</c:v>
+                  <c:v>90.0</c:v>
                 </c:pt>
                 <c:pt idx="259">
-                  <c:v>91</c:v>
+                  <c:v>91.0</c:v>
                 </c:pt>
                 <c:pt idx="260">
-                  <c:v>92</c:v>
+                  <c:v>92.0</c:v>
                 </c:pt>
                 <c:pt idx="261">
-                  <c:v>93</c:v>
+                  <c:v>93.0</c:v>
                 </c:pt>
                 <c:pt idx="262">
-                  <c:v>94</c:v>
+                  <c:v>94.0</c:v>
                 </c:pt>
                 <c:pt idx="263">
-                  <c:v>95</c:v>
+                  <c:v>95.0</c:v>
                 </c:pt>
                 <c:pt idx="264">
-                  <c:v>95</c:v>
+                  <c:v>95.0</c:v>
                 </c:pt>
                 <c:pt idx="265">
-                  <c:v>95</c:v>
+                  <c:v>95.0</c:v>
                 </c:pt>
                 <c:pt idx="266">
-                  <c:v>96</c:v>
+                  <c:v>96.0</c:v>
                 </c:pt>
                 <c:pt idx="267">
-                  <c:v>97</c:v>
+                  <c:v>97.0</c:v>
                 </c:pt>
                 <c:pt idx="268">
-                  <c:v>98</c:v>
+                  <c:v>98.0</c:v>
                 </c:pt>
                 <c:pt idx="269">
-                  <c:v>99</c:v>
+                  <c:v>99.0</c:v>
                 </c:pt>
                 <c:pt idx="270">
-                  <c:v>100</c:v>
+                  <c:v>100.0</c:v>
                 </c:pt>
                 <c:pt idx="271">
-                  <c:v>101</c:v>
+                  <c:v>101.0</c:v>
                 </c:pt>
                 <c:pt idx="272">
-                  <c:v>101</c:v>
+                  <c:v>101.0</c:v>
                 </c:pt>
                 <c:pt idx="273">
-                  <c:v>102</c:v>
+                  <c:v>102.0</c:v>
                 </c:pt>
                 <c:pt idx="274">
-                  <c:v>103</c:v>
+                  <c:v>103.0</c:v>
                 </c:pt>
                 <c:pt idx="275">
-                  <c:v>104</c:v>
+                  <c:v>104.0</c:v>
                 </c:pt>
                 <c:pt idx="276">
-                  <c:v>105</c:v>
+                  <c:v>105.0</c:v>
                 </c:pt>
                 <c:pt idx="277">
-                  <c:v>106</c:v>
+                  <c:v>106.0</c:v>
                 </c:pt>
                 <c:pt idx="278">
-                  <c:v>106</c:v>
+                  <c:v>106.0</c:v>
                 </c:pt>
                 <c:pt idx="279">
-                  <c:v>107</c:v>
+                  <c:v>107.0</c:v>
                 </c:pt>
                 <c:pt idx="280">
-                  <c:v>107</c:v>
+                  <c:v>107.0</c:v>
                 </c:pt>
                 <c:pt idx="281">
-                  <c:v>108</c:v>
+                  <c:v>108.0</c:v>
                 </c:pt>
                 <c:pt idx="282">
-                  <c:v>109</c:v>
+                  <c:v>109.0</c:v>
                 </c:pt>
                 <c:pt idx="283">
-                  <c:v>110</c:v>
+                  <c:v>110.0</c:v>
                 </c:pt>
                 <c:pt idx="284">
-                  <c:v>111</c:v>
+                  <c:v>111.0</c:v>
                 </c:pt>
                 <c:pt idx="285">
-                  <c:v>112</c:v>
+                  <c:v>112.0</c:v>
                 </c:pt>
                 <c:pt idx="286">
-                  <c:v>113</c:v>
+                  <c:v>113.0</c:v>
                 </c:pt>
                 <c:pt idx="287">
-                  <c:v>114</c:v>
+                  <c:v>114.0</c:v>
                 </c:pt>
                 <c:pt idx="288">
-                  <c:v>115</c:v>
+                  <c:v>115.0</c:v>
                 </c:pt>
                 <c:pt idx="289">
-                  <c:v>115</c:v>
+                  <c:v>115.0</c:v>
                 </c:pt>
                 <c:pt idx="290">
-                  <c:v>116</c:v>
+                  <c:v>116.0</c:v>
                 </c:pt>
                 <c:pt idx="291">
-                  <c:v>117</c:v>
+                  <c:v>117.0</c:v>
                 </c:pt>
                 <c:pt idx="292">
-                  <c:v>118</c:v>
+                  <c:v>118.0</c:v>
                 </c:pt>
                 <c:pt idx="293">
-                  <c:v>119</c:v>
+                  <c:v>119.0</c:v>
                 </c:pt>
                 <c:pt idx="294">
-                  <c:v>120</c:v>
+                  <c:v>120.0</c:v>
                 </c:pt>
                 <c:pt idx="295">
-                  <c:v>121</c:v>
+                  <c:v>121.0</c:v>
                 </c:pt>
                 <c:pt idx="296">
-                  <c:v>121</c:v>
+                  <c:v>121.0</c:v>
                 </c:pt>
                 <c:pt idx="297">
-                  <c:v>121</c:v>
+                  <c:v>121.0</c:v>
                 </c:pt>
                 <c:pt idx="298">
-                  <c:v>121</c:v>
+                  <c:v>121.0</c:v>
                 </c:pt>
                 <c:pt idx="299">
-                  <c:v>121</c:v>
+                  <c:v>121.0</c:v>
                 </c:pt>
                 <c:pt idx="300">
-                  <c:v>122</c:v>
+                  <c:v>122.0</c:v>
                 </c:pt>
                 <c:pt idx="301">
-                  <c:v>122</c:v>
+                  <c:v>122.0</c:v>
                 </c:pt>
                 <c:pt idx="302">
-                  <c:v>123</c:v>
+                  <c:v>123.0</c:v>
                 </c:pt>
                 <c:pt idx="303">
-                  <c:v>124</c:v>
+                  <c:v>124.0</c:v>
                 </c:pt>
                 <c:pt idx="304">
-                  <c:v>125</c:v>
+                  <c:v>125.0</c:v>
                 </c:pt>
                 <c:pt idx="305">
-                  <c:v>126</c:v>
+                  <c:v>126.0</c:v>
                 </c:pt>
                 <c:pt idx="306">
-                  <c:v>127</c:v>
+                  <c:v>127.0</c:v>
                 </c:pt>
                 <c:pt idx="307">
-                  <c:v>128</c:v>
+                  <c:v>128.0</c:v>
                 </c:pt>
                 <c:pt idx="308">
-                  <c:v>128</c:v>
+                  <c:v>128.0</c:v>
                 </c:pt>
                 <c:pt idx="309">
-                  <c:v>129</c:v>
+                  <c:v>129.0</c:v>
                 </c:pt>
                 <c:pt idx="310">
-                  <c:v>129</c:v>
+                  <c:v>129.0</c:v>
                 </c:pt>
                 <c:pt idx="311">
-                  <c:v>129</c:v>
+                  <c:v>129.0</c:v>
                 </c:pt>
                 <c:pt idx="312">
-                  <c:v>130</c:v>
+                  <c:v>130.0</c:v>
                 </c:pt>
                 <c:pt idx="313">
-                  <c:v>130</c:v>
+                  <c:v>130.0</c:v>
                 </c:pt>
                 <c:pt idx="314">
-                  <c:v>131</c:v>
+                  <c:v>131.0</c:v>
                 </c:pt>
                 <c:pt idx="315">
-                  <c:v>131</c:v>
+                  <c:v>131.0</c:v>
                 </c:pt>
                 <c:pt idx="316">
-                  <c:v>132</c:v>
+                  <c:v>132.0</c:v>
                 </c:pt>
                 <c:pt idx="317">
-                  <c:v>133</c:v>
+                  <c:v>133.0</c:v>
                 </c:pt>
                 <c:pt idx="318">
-                  <c:v>134</c:v>
+                  <c:v>134.0</c:v>
                 </c:pt>
                 <c:pt idx="319">
-                  <c:v>135</c:v>
+                  <c:v>135.0</c:v>
                 </c:pt>
                 <c:pt idx="320">
-                  <c:v>136</c:v>
+                  <c:v>136.0</c:v>
                 </c:pt>
                 <c:pt idx="321">
-                  <c:v>136</c:v>
+                  <c:v>136.0</c:v>
                 </c:pt>
                 <c:pt idx="322">
-                  <c:v>137</c:v>
+                  <c:v>137.0</c:v>
                 </c:pt>
                 <c:pt idx="323">
-                  <c:v>138</c:v>
+                  <c:v>138.0</c:v>
                 </c:pt>
                 <c:pt idx="324">
-                  <c:v>139</c:v>
+                  <c:v>139.0</c:v>
                 </c:pt>
                 <c:pt idx="325">
-                  <c:v>139</c:v>
+                  <c:v>139.0</c:v>
                 </c:pt>
                 <c:pt idx="326">
-                  <c:v>140</c:v>
+                  <c:v>140.0</c:v>
                 </c:pt>
                 <c:pt idx="327">
-                  <c:v>140</c:v>
+                  <c:v>140.0</c:v>
                 </c:pt>
                 <c:pt idx="328">
-                  <c:v>141</c:v>
+                  <c:v>141.0</c:v>
                 </c:pt>
                 <c:pt idx="329">
-                  <c:v>142</c:v>
+                  <c:v>142.0</c:v>
                 </c:pt>
                 <c:pt idx="330">
-                  <c:v>143</c:v>
+                  <c:v>143.0</c:v>
                 </c:pt>
                 <c:pt idx="331">
-                  <c:v>144</c:v>
+                  <c:v>144.0</c:v>
                 </c:pt>
                 <c:pt idx="332">
-                  <c:v>145</c:v>
+                  <c:v>145.0</c:v>
                 </c:pt>
                 <c:pt idx="333">
-                  <c:v>146</c:v>
+                  <c:v>146.0</c:v>
                 </c:pt>
                 <c:pt idx="334">
-                  <c:v>147</c:v>
+                  <c:v>147.0</c:v>
                 </c:pt>
                 <c:pt idx="335">
-                  <c:v>147</c:v>
+                  <c:v>147.0</c:v>
                 </c:pt>
                 <c:pt idx="336">
-                  <c:v>148</c:v>
+                  <c:v>148.0</c:v>
                 </c:pt>
                 <c:pt idx="337">
-                  <c:v>149</c:v>
+                  <c:v>149.0</c:v>
                 </c:pt>
                 <c:pt idx="338">
-                  <c:v>150</c:v>
+                  <c:v>150.0</c:v>
                 </c:pt>
                 <c:pt idx="339">
-                  <c:v>151</c:v>
+                  <c:v>151.0</c:v>
                 </c:pt>
                 <c:pt idx="340">
-                  <c:v>152</c:v>
+                  <c:v>152.0</c:v>
                 </c:pt>
                 <c:pt idx="341">
-                  <c:v>153</c:v>
+                  <c:v>153.0</c:v>
                 </c:pt>
                 <c:pt idx="342">
-                  <c:v>154</c:v>
+                  <c:v>154.0</c:v>
                 </c:pt>
                 <c:pt idx="343">
-                  <c:v>155</c:v>
+                  <c:v>155.0</c:v>
                 </c:pt>
                 <c:pt idx="344">
-                  <c:v>156</c:v>
+                  <c:v>156.0</c:v>
                 </c:pt>
                 <c:pt idx="345">
-                  <c:v>156</c:v>
+                  <c:v>156.0</c:v>
                 </c:pt>
                 <c:pt idx="346">
-                  <c:v>157</c:v>
+                  <c:v>157.0</c:v>
                 </c:pt>
                 <c:pt idx="347">
-                  <c:v>158</c:v>
+                  <c:v>158.0</c:v>
                 </c:pt>
                 <c:pt idx="348">
-                  <c:v>159</c:v>
+                  <c:v>159.0</c:v>
                 </c:pt>
                 <c:pt idx="349">
-                  <c:v>159</c:v>
+                  <c:v>159.0</c:v>
                 </c:pt>
                 <c:pt idx="350">
-                  <c:v>160</c:v>
+                  <c:v>160.0</c:v>
                 </c:pt>
                 <c:pt idx="351">
-                  <c:v>161</c:v>
+                  <c:v>161.0</c:v>
                 </c:pt>
                 <c:pt idx="352">
-                  <c:v>162</c:v>
+                  <c:v>162.0</c:v>
                 </c:pt>
                 <c:pt idx="353">
-                  <c:v>163</c:v>
+                  <c:v>163.0</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>164</c:v>
+                  <c:v>164.0</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>164</c:v>
+                  <c:v>164.0</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>164</c:v>
+                  <c:v>164.0</c:v>
                 </c:pt>
                 <c:pt idx="357">
-                  <c:v>165</c:v>
+                  <c:v>165.0</c:v>
                 </c:pt>
                 <c:pt idx="358">
-                  <c:v>166</c:v>
+                  <c:v>166.0</c:v>
                 </c:pt>
                 <c:pt idx="359">
-                  <c:v>167</c:v>
+                  <c:v>167.0</c:v>
                 </c:pt>
                 <c:pt idx="360">
-                  <c:v>168</c:v>
+                  <c:v>168.0</c:v>
                 </c:pt>
                 <c:pt idx="361">
-                  <c:v>169</c:v>
+                  <c:v>169.0</c:v>
                 </c:pt>
                 <c:pt idx="362">
-                  <c:v>170</c:v>
+                  <c:v>170.0</c:v>
                 </c:pt>
                 <c:pt idx="363">
-                  <c:v>170</c:v>
+                  <c:v>170.0</c:v>
                 </c:pt>
                 <c:pt idx="364">
-                  <c:v>171</c:v>
+                  <c:v>171.0</c:v>
                 </c:pt>
                 <c:pt idx="365">
-                  <c:v>172</c:v>
+                  <c:v>172.0</c:v>
                 </c:pt>
                 <c:pt idx="366">
-                  <c:v>173</c:v>
+                  <c:v>173.0</c:v>
                 </c:pt>
                 <c:pt idx="367">
-                  <c:v>174</c:v>
+                  <c:v>174.0</c:v>
                 </c:pt>
                 <c:pt idx="368">
-                  <c:v>175</c:v>
+                  <c:v>175.0</c:v>
                 </c:pt>
                 <c:pt idx="369">
-                  <c:v>175</c:v>
+                  <c:v>175.0</c:v>
                 </c:pt>
                 <c:pt idx="370">
-                  <c:v>175</c:v>
+                  <c:v>175.0</c:v>
                 </c:pt>
                 <c:pt idx="371">
-                  <c:v>176</c:v>
+                  <c:v>176.0</c:v>
                 </c:pt>
                 <c:pt idx="372">
-                  <c:v>177</c:v>
+                  <c:v>177.0</c:v>
                 </c:pt>
                 <c:pt idx="373">
-                  <c:v>178</c:v>
+                  <c:v>178.0</c:v>
                 </c:pt>
                 <c:pt idx="374">
-                  <c:v>179</c:v>
+                  <c:v>179.0</c:v>
                 </c:pt>
                 <c:pt idx="375">
-                  <c:v>180</c:v>
+                  <c:v>180.0</c:v>
                 </c:pt>
                 <c:pt idx="376">
-                  <c:v>181</c:v>
+                  <c:v>181.0</c:v>
                 </c:pt>
                 <c:pt idx="377">
-                  <c:v>182</c:v>
+                  <c:v>182.0</c:v>
                 </c:pt>
                 <c:pt idx="378">
-                  <c:v>183</c:v>
+                  <c:v>183.0</c:v>
                 </c:pt>
                 <c:pt idx="379">
-                  <c:v>184</c:v>
+                  <c:v>184.0</c:v>
                 </c:pt>
                 <c:pt idx="380">
-                  <c:v>185</c:v>
+                  <c:v>185.0</c:v>
                 </c:pt>
                 <c:pt idx="381">
-                  <c:v>186</c:v>
+                  <c:v>186.0</c:v>
                 </c:pt>
                 <c:pt idx="382">
-                  <c:v>187</c:v>
+                  <c:v>187.0</c:v>
                 </c:pt>
                 <c:pt idx="383">
-                  <c:v>188</c:v>
+                  <c:v>188.0</c:v>
                 </c:pt>
                 <c:pt idx="384">
-                  <c:v>189</c:v>
+                  <c:v>189.0</c:v>
                 </c:pt>
                 <c:pt idx="385">
-                  <c:v>189</c:v>
+                  <c:v>189.0</c:v>
                 </c:pt>
                 <c:pt idx="386">
-                  <c:v>190</c:v>
+                  <c:v>190.0</c:v>
                 </c:pt>
                 <c:pt idx="387">
-                  <c:v>191</c:v>
+                  <c:v>191.0</c:v>
                 </c:pt>
                 <c:pt idx="388">
-                  <c:v>192</c:v>
+                  <c:v>192.0</c:v>
                 </c:pt>
                 <c:pt idx="389">
-                  <c:v>193</c:v>
+                  <c:v>193.0</c:v>
                 </c:pt>
                 <c:pt idx="390">
-                  <c:v>194</c:v>
+                  <c:v>194.0</c:v>
                 </c:pt>
                 <c:pt idx="391">
-                  <c:v>194</c:v>
+                  <c:v>194.0</c:v>
                 </c:pt>
                 <c:pt idx="392">
-                  <c:v>194</c:v>
+                  <c:v>194.0</c:v>
                 </c:pt>
                 <c:pt idx="393">
-                  <c:v>194</c:v>
+                  <c:v>194.0</c:v>
                 </c:pt>
                 <c:pt idx="394">
-                  <c:v>194</c:v>
+                  <c:v>194.0</c:v>
                 </c:pt>
                 <c:pt idx="395">
-                  <c:v>194</c:v>
+                  <c:v>194.0</c:v>
                 </c:pt>
                 <c:pt idx="396">
-                  <c:v>194</c:v>
+                  <c:v>194.0</c:v>
                 </c:pt>
                 <c:pt idx="397">
-                  <c:v>195</c:v>
+                  <c:v>195.0</c:v>
                 </c:pt>
                 <c:pt idx="398">
-                  <c:v>196</c:v>
+                  <c:v>196.0</c:v>
                 </c:pt>
                 <c:pt idx="399">
-                  <c:v>197</c:v>
+                  <c:v>197.0</c:v>
                 </c:pt>
                 <c:pt idx="400">
-                  <c:v>197</c:v>
+                  <c:v>197.0</c:v>
                 </c:pt>
                 <c:pt idx="401">
-                  <c:v>197</c:v>
+                  <c:v>197.0</c:v>
                 </c:pt>
                 <c:pt idx="402">
-                  <c:v>198</c:v>
+                  <c:v>198.0</c:v>
                 </c:pt>
                 <c:pt idx="403">
-                  <c:v>199</c:v>
+                  <c:v>199.0</c:v>
                 </c:pt>
                 <c:pt idx="404">
-                  <c:v>200</c:v>
+                  <c:v>200.0</c:v>
                 </c:pt>
                 <c:pt idx="405">
-                  <c:v>201</c:v>
+                  <c:v>201.0</c:v>
                 </c:pt>
                 <c:pt idx="406">
-                  <c:v>202</c:v>
+                  <c:v>202.0</c:v>
                 </c:pt>
                 <c:pt idx="407">
-                  <c:v>202</c:v>
+                  <c:v>202.0</c:v>
                 </c:pt>
                 <c:pt idx="408">
-                  <c:v>203</c:v>
+                  <c:v>203.0</c:v>
                 </c:pt>
                 <c:pt idx="409">
-                  <c:v>203</c:v>
+                  <c:v>203.0</c:v>
                 </c:pt>
                 <c:pt idx="410">
-                  <c:v>204</c:v>
+                  <c:v>204.0</c:v>
                 </c:pt>
                 <c:pt idx="411">
-                  <c:v>205</c:v>
+                  <c:v>205.0</c:v>
                 </c:pt>
                 <c:pt idx="412">
-                  <c:v>206</c:v>
+                  <c:v>206.0</c:v>
                 </c:pt>
                 <c:pt idx="413">
-                  <c:v>207</c:v>
+                  <c:v>207.0</c:v>
                 </c:pt>
                 <c:pt idx="414">
-                  <c:v>207</c:v>
+                  <c:v>207.0</c:v>
                 </c:pt>
                 <c:pt idx="415">
-                  <c:v>208</c:v>
+                  <c:v>208.0</c:v>
                 </c:pt>
                 <c:pt idx="416">
-                  <c:v>209</c:v>
+                  <c:v>209.0</c:v>
                 </c:pt>
                 <c:pt idx="417">
-                  <c:v>209</c:v>
+                  <c:v>209.0</c:v>
                 </c:pt>
                 <c:pt idx="418">
-                  <c:v>210</c:v>
+                  <c:v>210.0</c:v>
                 </c:pt>
                 <c:pt idx="419">
-                  <c:v>211</c:v>
+                  <c:v>211.0</c:v>
                 </c:pt>
                 <c:pt idx="420">
-                  <c:v>212</c:v>
+                  <c:v>212.0</c:v>
                 </c:pt>
                 <c:pt idx="421">
-                  <c:v>213</c:v>
+                  <c:v>213.0</c:v>
                 </c:pt>
                 <c:pt idx="422">
-                  <c:v>214</c:v>
+                  <c:v>214.0</c:v>
                 </c:pt>
                 <c:pt idx="423">
-                  <c:v>214</c:v>
+                  <c:v>214.0</c:v>
                 </c:pt>
                 <c:pt idx="424">
-                  <c:v>214</c:v>
+                  <c:v>214.0</c:v>
                 </c:pt>
                 <c:pt idx="425">
-                  <c:v>215</c:v>
+                  <c:v>215.0</c:v>
                 </c:pt>
                 <c:pt idx="426">
-                  <c:v>215</c:v>
+                  <c:v>215.0</c:v>
                 </c:pt>
                 <c:pt idx="427">
-                  <c:v>216</c:v>
+                  <c:v>216.0</c:v>
                 </c:pt>
                 <c:pt idx="428">
-                  <c:v>217</c:v>
+                  <c:v>217.0</c:v>
                 </c:pt>
                 <c:pt idx="429">
-                  <c:v>217</c:v>
+                  <c:v>217.0</c:v>
                 </c:pt>
                 <c:pt idx="430">
-                  <c:v>218</c:v>
+                  <c:v>218.0</c:v>
                 </c:pt>
                 <c:pt idx="431">
-                  <c:v>218</c:v>
+                  <c:v>218.0</c:v>
                 </c:pt>
                 <c:pt idx="432">
-                  <c:v>218</c:v>
+                  <c:v>218.0</c:v>
                 </c:pt>
                 <c:pt idx="433">
-                  <c:v>219</c:v>
+                  <c:v>219.0</c:v>
                 </c:pt>
                 <c:pt idx="434">
-                  <c:v>219</c:v>
+                  <c:v>219.0</c:v>
                 </c:pt>
                 <c:pt idx="435">
-                  <c:v>219</c:v>
+                  <c:v>219.0</c:v>
                 </c:pt>
                 <c:pt idx="436">
-                  <c:v>220</c:v>
+                  <c:v>220.0</c:v>
                 </c:pt>
                 <c:pt idx="437">
-                  <c:v>221</c:v>
+                  <c:v>221.0</c:v>
                 </c:pt>
                 <c:pt idx="438">
-                  <c:v>222</c:v>
+                  <c:v>222.0</c:v>
                 </c:pt>
                 <c:pt idx="439">
-                  <c:v>223</c:v>
+                  <c:v>223.0</c:v>
                 </c:pt>
                 <c:pt idx="440">
-                  <c:v>224</c:v>
+                  <c:v>224.0</c:v>
                 </c:pt>
                 <c:pt idx="441">
-                  <c:v>225</c:v>
+                  <c:v>225.0</c:v>
                 </c:pt>
                 <c:pt idx="442">
-                  <c:v>226</c:v>
+                  <c:v>226.0</c:v>
                 </c:pt>
                 <c:pt idx="443">
-                  <c:v>227</c:v>
+                  <c:v>227.0</c:v>
                 </c:pt>
                 <c:pt idx="444">
-                  <c:v>228</c:v>
+                  <c:v>228.0</c:v>
                 </c:pt>
                 <c:pt idx="445">
-                  <c:v>229</c:v>
+                  <c:v>229.0</c:v>
                 </c:pt>
                 <c:pt idx="446">
-                  <c:v>229</c:v>
+                  <c:v>229.0</c:v>
                 </c:pt>
                 <c:pt idx="447">
-                  <c:v>230</c:v>
+                  <c:v>230.0</c:v>
                 </c:pt>
                 <c:pt idx="448">
-                  <c:v>231</c:v>
+                  <c:v>231.0</c:v>
                 </c:pt>
                 <c:pt idx="449">
-                  <c:v>232</c:v>
+                  <c:v>232.0</c:v>
                 </c:pt>
                 <c:pt idx="450">
-                  <c:v>233</c:v>
+                  <c:v>233.0</c:v>
                 </c:pt>
                 <c:pt idx="451">
-                  <c:v>234</c:v>
+                  <c:v>234.0</c:v>
                 </c:pt>
                 <c:pt idx="452">
-                  <c:v>235</c:v>
+                  <c:v>235.0</c:v>
                 </c:pt>
                 <c:pt idx="453">
-                  <c:v>236</c:v>
+                  <c:v>236.0</c:v>
                 </c:pt>
                 <c:pt idx="454">
-                  <c:v>237</c:v>
+                  <c:v>237.0</c:v>
                 </c:pt>
                 <c:pt idx="455">
-                  <c:v>238</c:v>
+                  <c:v>238.0</c:v>
                 </c:pt>
                 <c:pt idx="456">
-                  <c:v>239</c:v>
+                  <c:v>239.0</c:v>
                 </c:pt>
                 <c:pt idx="457">
-                  <c:v>239</c:v>
+                  <c:v>239.0</c:v>
                 </c:pt>
                 <c:pt idx="458">
-                  <c:v>240</c:v>
+                  <c:v>240.0</c:v>
                 </c:pt>
                 <c:pt idx="459">
-                  <c:v>241</c:v>
+                  <c:v>241.0</c:v>
                 </c:pt>
                 <c:pt idx="460">
-                  <c:v>241</c:v>
+                  <c:v>241.0</c:v>
                 </c:pt>
                 <c:pt idx="461">
-                  <c:v>242</c:v>
+                  <c:v>242.0</c:v>
                 </c:pt>
                 <c:pt idx="462">
-                  <c:v>242</c:v>
+                  <c:v>242.0</c:v>
                 </c:pt>
                 <c:pt idx="463">
-                  <c:v>242</c:v>
+                  <c:v>242.0</c:v>
                 </c:pt>
                 <c:pt idx="464">
-                  <c:v>243</c:v>
+                  <c:v>243.0</c:v>
                 </c:pt>
                 <c:pt idx="465">
-                  <c:v>244</c:v>
+                  <c:v>244.0</c:v>
                 </c:pt>
                 <c:pt idx="466">
-                  <c:v>245</c:v>
+                  <c:v>245.0</c:v>
                 </c:pt>
                 <c:pt idx="467">
-                  <c:v>246</c:v>
+                  <c:v>246.0</c:v>
                 </c:pt>
                 <c:pt idx="468">
-                  <c:v>247</c:v>
+                  <c:v>247.0</c:v>
                 </c:pt>
                 <c:pt idx="469">
-                  <c:v>248</c:v>
+                  <c:v>248.0</c:v>
                 </c:pt>
                 <c:pt idx="470">
-                  <c:v>249</c:v>
+                  <c:v>249.0</c:v>
                 </c:pt>
                 <c:pt idx="471">
-                  <c:v>249</c:v>
+                  <c:v>249.0</c:v>
                 </c:pt>
                 <c:pt idx="472">
-                  <c:v>249</c:v>
+                  <c:v>249.0</c:v>
                 </c:pt>
                 <c:pt idx="473">
-                  <c:v>250</c:v>
+                  <c:v>250.0</c:v>
                 </c:pt>
                 <c:pt idx="474">
-                  <c:v>251</c:v>
+                  <c:v>251.0</c:v>
                 </c:pt>
                 <c:pt idx="475">
-                  <c:v>252</c:v>
+                  <c:v>252.0</c:v>
                 </c:pt>
                 <c:pt idx="476">
-                  <c:v>253</c:v>
+                  <c:v>253.0</c:v>
                 </c:pt>
                 <c:pt idx="477">
-                  <c:v>254</c:v>
+                  <c:v>254.0</c:v>
                 </c:pt>
                 <c:pt idx="478">
-                  <c:v>255</c:v>
+                  <c:v>255.0</c:v>
                 </c:pt>
                 <c:pt idx="479">
-                  <c:v>256</c:v>
+                  <c:v>256.0</c:v>
                 </c:pt>
                 <c:pt idx="480">
-                  <c:v>257</c:v>
+                  <c:v>257.0</c:v>
                 </c:pt>
                 <c:pt idx="481">
-                  <c:v>258</c:v>
+                  <c:v>258.0</c:v>
                 </c:pt>
                 <c:pt idx="482">
-                  <c:v>258</c:v>
+                  <c:v>258.0</c:v>
                 </c:pt>
                 <c:pt idx="483">
-                  <c:v>259</c:v>
+                  <c:v>259.0</c:v>
                 </c:pt>
                 <c:pt idx="484">
-                  <c:v>260</c:v>
+                  <c:v>260.0</c:v>
                 </c:pt>
                 <c:pt idx="485">
-                  <c:v>261</c:v>
+                  <c:v>261.0</c:v>
                 </c:pt>
                 <c:pt idx="486">
-                  <c:v>262</c:v>
+                  <c:v>262.0</c:v>
                 </c:pt>
                 <c:pt idx="487">
-                  <c:v>263</c:v>
+                  <c:v>263.0</c:v>
                 </c:pt>
                 <c:pt idx="488">
-                  <c:v>264</c:v>
+                  <c:v>264.0</c:v>
                 </c:pt>
                 <c:pt idx="489">
-                  <c:v>264</c:v>
+                  <c:v>264.0</c:v>
                 </c:pt>
                 <c:pt idx="490">
-                  <c:v>264</c:v>
+                  <c:v>264.0</c:v>
                 </c:pt>
                 <c:pt idx="491">
-                  <c:v>265</c:v>
+                  <c:v>265.0</c:v>
                 </c:pt>
                 <c:pt idx="492">
-                  <c:v>266</c:v>
+                  <c:v>266.0</c:v>
                 </c:pt>
                 <c:pt idx="493">
-                  <c:v>267</c:v>
+                  <c:v>267.0</c:v>
                 </c:pt>
                 <c:pt idx="494">
-                  <c:v>267</c:v>
+                  <c:v>267.0</c:v>
                 </c:pt>
                 <c:pt idx="495">
-                  <c:v>267</c:v>
+                  <c:v>267.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3554,11 +3553,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="81646080"/>
-        <c:axId val="81646656"/>
+        <c:axId val="-2141335032"/>
+        <c:axId val="-2141329624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="81646080"/>
+        <c:axId val="-2141335032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3587,12 +3586,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81646656"/>
+        <c:crossAx val="-2141329624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="81646656"/>
+        <c:axId val="-2141329624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3627,7 +3626,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81646080"/>
+        <c:crossAx val="-2141335032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3647,7 +3646,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3671,71 +3670,53 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$A$1:$A$9</c:f>
+              <c:f>Sheet3!$A$1:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>translation suggestion</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>undo</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>like article</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>alternatives</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>text to speech</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>translation</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>alternatives</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>text to speech</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>like article</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>undo</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>translation suggestion</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>enable copy</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>star article</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>change orientation</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$B$1:$B$9</c:f>
+              <c:f>Sheet3!$B$1:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>57</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>57.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3751,11 +3732,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="137787392"/>
-        <c:axId val="81648384"/>
+        <c:axId val="-2141288152"/>
+        <c:axId val="-2141282728"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="137787392"/>
+        <c:axId val="-2141288152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3783,7 +3764,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81648384"/>
+        <c:crossAx val="-2141282728"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3791,7 +3772,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81648384"/>
+        <c:axId val="-2141282728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3821,7 +3802,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137787392"/>
+        <c:crossAx val="-2141288152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3841,7 +3822,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="nl-NL"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3854,7 +3835,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.246205069514894"/>
+          <c:y val="0.0575221238938053"/>
+          <c:w val="0.729141344980426"/>
+          <c:h val="0.717935335516689"/>
+        </c:manualLayout>
+      </c:layout>
       <c:barChart>
         <c:barDir val="bar"/>
         <c:grouping val="clustered"/>
@@ -3863,73 +3854,70 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </c:spPr>
+            <c:dLblPos val="outEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet3!$A$1:$A$9</c:f>
+              <c:f>Sheet3!$A$1:$A$6</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
+                  <c:v>translation suggestion</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>undo</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>like article</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>alternatives</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>text to speech</c:v>
+                </c:pt>
+                <c:pt idx="5">
                   <c:v>translation</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>alternatives</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>text to speech</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>like article</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>undo</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>translation suggestion</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>enable copy</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>star article</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>change orientation</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet3!$B$1:$B$9</c:f>
+              <c:f>Sheet3!$B$1:$B$6</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>57</c:v>
+                  <c:v>14.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45</c:v>
+                  <c:v>22.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>36</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>22</c:v>
+                  <c:v>45.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>57.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3945,40 +3933,16 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="137239552"/>
-        <c:axId val="137536064"/>
+        <c:axId val="-2141252120"/>
+        <c:axId val="-2141246392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="137239552"/>
+        <c:axId val="-2141252120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1200"/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="nl-NL" sz="1200"/>
-                  <a:t>Number of distinct</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="nl-NL" sz="1200" baseline="0"/>
-                  <a:t> users</a:t>
-                </a:r>
-                <a:endParaRPr lang="nl-NL" sz="1200"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3989,10 +3953,10 @@
             <a:pPr>
               <a:defRPr sz="1200"/>
             </a:pPr>
-            <a:endParaRPr lang="nl-NL"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="137536064"/>
+        <c:crossAx val="-2141246392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4000,7 +3964,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="137536064"/>
+        <c:axId val="-2141246392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4018,7 +3982,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="nl-NL" sz="1200"/>
-                  <a:t>Event</a:t>
+                  <a:t>Number of distinct users of feature</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4030,15 +3994,25 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="137239552"/>
+        <c:crossAx val="-2141252120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+      <c:spPr>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:spPr>
+    <a:ln>
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
@@ -4059,7 +4033,7 @@
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4082,15 +4056,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1714500</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>228601</xdr:rowOff>
+      <xdr:colOff>1714501</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>476251</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4159,7 +4133,7 @@
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4183,14 +4157,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>552451</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>304800</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4499,97 +4473,78 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B9"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="31.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2">
-        <v>6721</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2">
-        <v>1146</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" thickBot="1">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" thickBot="1">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15" thickBot="1">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" thickBot="1">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B8" s="2">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="2">
-        <v>29</v>
+        <v>6721</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:B9">
-    <sortCondition descending="1" ref="B9"/>
+  <sortState ref="A1:B6">
+    <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -4601,9 +4556,9 @@
       <selection sqref="A1:B496"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15" thickBot="1">
       <c r="A1" s="2">
         <v>27</v>
       </c>
@@ -4611,7 +4566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" ht="15" thickBot="1">
       <c r="A2" s="2">
         <v>27</v>
       </c>
@@ -4619,7 +4574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" ht="15" thickBot="1">
       <c r="A3" s="2">
         <v>31</v>
       </c>
@@ -4627,7 +4582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" ht="15" thickBot="1">
       <c r="A4" s="2">
         <v>31</v>
       </c>
@@ -4635,7 +4590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="15" thickBot="1">
       <c r="A5" s="2">
         <v>31</v>
       </c>
@@ -4643,7 +4598,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="15" thickBot="1">
       <c r="A6" s="2">
         <v>22</v>
       </c>
@@ -4651,7 +4606,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="15" thickBot="1">
       <c r="A7" s="2">
         <v>22</v>
       </c>
@@ -4659,7 +4614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="15" thickBot="1">
       <c r="A8" s="2">
         <v>22</v>
       </c>
@@ -4667,7 +4622,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="15" thickBot="1">
       <c r="A9" s="2">
         <v>2</v>
       </c>
@@ -4675,7 +4630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="15" thickBot="1">
       <c r="A10" s="2">
         <v>22</v>
       </c>
@@ -4683,7 +4638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="15" thickBot="1">
       <c r="A11" s="2">
         <v>33</v>
       </c>
@@ -4691,7 +4646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="15" thickBot="1">
       <c r="A12" s="2">
         <v>2</v>
       </c>
@@ -4699,7 +4654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="15" thickBot="1">
       <c r="A13" s="2">
         <v>26</v>
       </c>
@@ -4707,7 +4662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="15" thickBot="1">
       <c r="A14" s="2">
         <v>31</v>
       </c>
@@ -4715,7 +4670,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="15" thickBot="1">
       <c r="A15" s="2">
         <v>42</v>
       </c>
@@ -4723,7 +4678,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="15" thickBot="1">
       <c r="A16" s="2">
         <v>2</v>
       </c>
@@ -4731,7 +4686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" ht="15" thickBot="1">
       <c r="A17" s="2">
         <v>2</v>
       </c>
@@ -4739,7 +4694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="15" thickBot="1">
       <c r="A18" s="2">
         <v>10</v>
       </c>
@@ -4747,7 +4702,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="15" thickBot="1">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -4755,7 +4710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="15" thickBot="1">
       <c r="A20" s="2">
         <v>22</v>
       </c>
@@ -4763,7 +4718,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="15" thickBot="1">
       <c r="A21" s="2">
         <v>27</v>
       </c>
@@ -4771,7 +4726,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="15" thickBot="1">
       <c r="A22" s="2">
         <v>31</v>
       </c>
@@ -4779,7 +4734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="15" thickBot="1">
       <c r="A23" s="2">
         <v>37</v>
       </c>
@@ -4787,7 +4742,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="15" thickBot="1">
       <c r="A24" s="2">
         <v>37</v>
       </c>
@@ -4795,7 +4750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="15" thickBot="1">
       <c r="A25" s="2">
         <v>37</v>
       </c>
@@ -4803,7 +4758,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="15" thickBot="1">
       <c r="A26" s="2">
         <v>40</v>
       </c>
@@ -4811,7 +4766,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" ht="15" thickBot="1">
       <c r="A27" s="2">
         <v>2</v>
       </c>
@@ -4819,7 +4774,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" ht="15" thickBot="1">
       <c r="A28" s="2">
         <v>31</v>
       </c>
@@ -4827,7 +4782,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="15" thickBot="1">
       <c r="A29" s="2">
         <v>2</v>
       </c>
@@ -4835,7 +4790,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="15" thickBot="1">
       <c r="A30" s="2">
         <v>27</v>
       </c>
@@ -4843,7 +4798,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="15" thickBot="1">
       <c r="A31" s="2">
         <v>28</v>
       </c>
@@ -4851,7 +4806,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="15" thickBot="1">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -4859,7 +4814,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="15" thickBot="1">
       <c r="A33" s="2">
         <v>2</v>
       </c>
@@ -4867,7 +4822,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="15" thickBot="1">
       <c r="A34" s="2">
         <v>22</v>
       </c>
@@ -4875,7 +4830,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="15" thickBot="1">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -4883,7 +4838,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="15" thickBot="1">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -4891,7 +4846,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="15" thickBot="1">
       <c r="A37" s="2">
         <v>34</v>
       </c>
@@ -4899,7 +4854,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" ht="15" thickBot="1">
       <c r="A38" s="2">
         <v>34</v>
       </c>
@@ -4907,7 +4862,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" ht="15" thickBot="1">
       <c r="A39" s="2">
         <v>34</v>
       </c>
@@ -4915,7 +4870,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" ht="15" thickBot="1">
       <c r="A40" s="2">
         <v>37</v>
       </c>
@@ -4923,7 +4878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" ht="15" thickBot="1">
       <c r="A41" s="2">
         <v>42</v>
       </c>
@@ -4931,7 +4886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="15" thickBot="1">
       <c r="A42" s="2">
         <v>44</v>
       </c>
@@ -4939,7 +4894,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="15" thickBot="1">
       <c r="A43" s="2">
         <v>53</v>
       </c>
@@ -4947,7 +4902,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" ht="15" thickBot="1">
       <c r="A44" s="2">
         <v>55</v>
       </c>
@@ -4955,7 +4910,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="15" thickBot="1">
       <c r="A45" s="2">
         <v>27</v>
       </c>
@@ -4963,7 +4918,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="15" thickBot="1">
       <c r="A46" s="2">
         <v>1</v>
       </c>
@@ -4971,7 +4926,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="15" thickBot="1">
       <c r="A47" s="2">
         <v>42</v>
       </c>
@@ -4979,7 +4934,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" ht="15" thickBot="1">
       <c r="A48" s="2">
         <v>13</v>
       </c>
@@ -4987,7 +4942,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" ht="15" thickBot="1">
       <c r="A49" s="2">
         <v>22</v>
       </c>
@@ -4995,7 +4950,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" ht="15" thickBot="1">
       <c r="A50" s="2">
         <v>22</v>
       </c>
@@ -5003,7 +4958,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" ht="15" thickBot="1">
       <c r="A51" s="2">
         <v>31</v>
       </c>
@@ -5011,7 +4966,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" ht="15" thickBot="1">
       <c r="A52" s="2">
         <v>31</v>
       </c>
@@ -5019,7 +4974,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" ht="15" thickBot="1">
       <c r="A53" s="2">
         <v>31</v>
       </c>
@@ -5027,7 +4982,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" ht="15" thickBot="1">
       <c r="A54" s="2">
         <v>31</v>
       </c>
@@ -5035,7 +4990,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="15" thickBot="1">
       <c r="A55" s="2">
         <v>5</v>
       </c>
@@ -5043,7 +4998,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="15" thickBot="1">
       <c r="A56" s="2">
         <v>31</v>
       </c>
@@ -5051,7 +5006,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:2" ht="15" thickBot="1">
       <c r="A57" s="2">
         <v>31</v>
       </c>
@@ -5059,7 +5014,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" ht="15" thickBot="1">
       <c r="A58" s="2">
         <v>38</v>
       </c>
@@ -5067,7 +5022,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" ht="15" thickBot="1">
       <c r="A59" s="2">
         <v>16</v>
       </c>
@@ -5075,7 +5030,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="60" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" ht="15" thickBot="1">
       <c r="A60" s="2">
         <v>31</v>
       </c>
@@ -5083,7 +5038,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" ht="15" thickBot="1">
       <c r="A61" s="2">
         <v>31</v>
       </c>
@@ -5091,7 +5046,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" ht="15" thickBot="1">
       <c r="A62" s="2">
         <v>31</v>
       </c>
@@ -5099,7 +5054,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" ht="15" thickBot="1">
       <c r="A63" s="2">
         <v>5</v>
       </c>
@@ -5107,7 +5062,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="64" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" ht="15" thickBot="1">
       <c r="A64" s="2">
         <v>22</v>
       </c>
@@ -5115,7 +5070,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:2" ht="15" thickBot="1">
       <c r="A65" s="2">
         <v>22</v>
       </c>
@@ -5123,7 +5078,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="66" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:2" ht="15" thickBot="1">
       <c r="A66" s="2">
         <v>5</v>
       </c>
@@ -5131,7 +5086,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="67" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:2" ht="15" thickBot="1">
       <c r="A67" s="2">
         <v>5</v>
       </c>
@@ -5139,7 +5094,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="68" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:2" ht="15" thickBot="1">
       <c r="A68" s="2">
         <v>10</v>
       </c>
@@ -5147,7 +5102,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:2" ht="15" thickBot="1">
       <c r="A69" s="2">
         <v>13</v>
       </c>
@@ -5155,7 +5110,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="70" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:2" ht="15" thickBot="1">
       <c r="A70" s="2">
         <v>13</v>
       </c>
@@ -5163,7 +5118,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:2" ht="15" thickBot="1">
       <c r="A71" s="2">
         <v>16</v>
       </c>
@@ -5171,7 +5126,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:2" ht="15" thickBot="1">
       <c r="A72" s="2">
         <v>13</v>
       </c>
@@ -5179,7 +5134,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="73" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:2" ht="15" thickBot="1">
       <c r="A73" s="2">
         <v>42</v>
       </c>
@@ -5187,7 +5142,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="74" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:2" ht="15" thickBot="1">
       <c r="A74" s="2">
         <v>42</v>
       </c>
@@ -5195,7 +5150,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="75" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:2" ht="15" thickBot="1">
       <c r="A75" s="2">
         <v>31</v>
       </c>
@@ -5203,7 +5158,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="76" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:2" ht="15" thickBot="1">
       <c r="A76" s="2">
         <v>5</v>
       </c>
@@ -5211,7 +5166,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:2" ht="15" thickBot="1">
       <c r="A77" s="2">
         <v>5</v>
       </c>
@@ -5219,7 +5174,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="78" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:2" ht="15" thickBot="1">
       <c r="A78" s="2">
         <v>33</v>
       </c>
@@ -5227,7 +5182,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="79" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:2" ht="15" thickBot="1">
       <c r="A79" s="2">
         <v>44</v>
       </c>
@@ -5235,7 +5190,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="80" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:2" ht="15" thickBot="1">
       <c r="A80" s="2">
         <v>3</v>
       </c>
@@ -5243,7 +5198,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" ht="15" thickBot="1">
       <c r="A81" s="2">
         <v>3</v>
       </c>
@@ -5251,7 +5206,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="82" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" ht="15" thickBot="1">
       <c r="A82" s="2">
         <v>41</v>
       </c>
@@ -5259,7 +5214,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" ht="15" thickBot="1">
       <c r="A83" s="2">
         <v>21</v>
       </c>
@@ -5267,7 +5222,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="84" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" ht="15" thickBot="1">
       <c r="A84" s="2">
         <v>49</v>
       </c>
@@ -5275,7 +5230,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="85" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:2" ht="15" thickBot="1">
       <c r="A85" s="2">
         <v>21</v>
       </c>
@@ -5283,7 +5238,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:2" ht="15" thickBot="1">
       <c r="A86" s="2">
         <v>44</v>
       </c>
@@ -5291,7 +5246,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:2" ht="15" thickBot="1">
       <c r="A87" s="2">
         <v>21</v>
       </c>
@@ -5299,7 +5254,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="88" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:2" ht="15" thickBot="1">
       <c r="A88" s="2">
         <v>44</v>
       </c>
@@ -5307,7 +5262,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:2" ht="15" thickBot="1">
       <c r="A89" s="2">
         <v>16</v>
       </c>
@@ -5315,7 +5270,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="90" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:2" ht="15" thickBot="1">
       <c r="A90" s="2">
         <v>25</v>
       </c>
@@ -5323,7 +5278,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="91" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:2" ht="15" thickBot="1">
       <c r="A91" s="2">
         <v>25</v>
       </c>
@@ -5331,7 +5286,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="92" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:2" ht="15" thickBot="1">
       <c r="A92" s="2">
         <v>25</v>
       </c>
@@ -5339,7 +5294,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="93" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:2" ht="15" thickBot="1">
       <c r="A93" s="2">
         <v>27</v>
       </c>
@@ -5347,7 +5302,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="94" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:2" ht="15" thickBot="1">
       <c r="A94" s="2">
         <v>34</v>
       </c>
@@ -5355,7 +5310,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="95" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:2" ht="15" thickBot="1">
       <c r="A95" s="2">
         <v>41</v>
       </c>
@@ -5363,7 +5318,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="96" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:2" ht="15" thickBot="1">
       <c r="A96" s="2">
         <v>41</v>
       </c>
@@ -5371,7 +5326,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="97" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" ht="15" thickBot="1">
       <c r="A97" s="2">
         <v>52</v>
       </c>
@@ -5379,7 +5334,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="98" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" ht="15" thickBot="1">
       <c r="A98" s="2">
         <v>54</v>
       </c>
@@ -5387,7 +5342,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="99" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" ht="15" thickBot="1">
       <c r="A99" s="2">
         <v>54</v>
       </c>
@@ -5395,7 +5350,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="100" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" ht="15" thickBot="1">
       <c r="A100" s="2">
         <v>10</v>
       </c>
@@ -5403,7 +5358,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="101" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" ht="15" thickBot="1">
       <c r="A101" s="2">
         <v>16</v>
       </c>
@@ -5411,7 +5366,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="102" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" ht="15" thickBot="1">
       <c r="A102" s="2">
         <v>16</v>
       </c>
@@ -5419,7 +5374,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="103" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" ht="15" thickBot="1">
       <c r="A103" s="2">
         <v>16</v>
       </c>
@@ -5427,7 +5382,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="104" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" ht="15" thickBot="1">
       <c r="A104" s="2">
         <v>19</v>
       </c>
@@ -5435,7 +5390,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="105" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" ht="15" thickBot="1">
       <c r="A105" s="2">
         <v>19</v>
       </c>
@@ -5443,7 +5398,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="106" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" ht="15" thickBot="1">
       <c r="A106" s="2">
         <v>21</v>
       </c>
@@ -5451,7 +5406,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="107" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" ht="15" thickBot="1">
       <c r="A107" s="2">
         <v>21</v>
       </c>
@@ -5459,7 +5414,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="108" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" ht="15" thickBot="1">
       <c r="A108" s="2">
         <v>23</v>
       </c>
@@ -5467,7 +5422,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="109" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" ht="15" thickBot="1">
       <c r="A109" s="2">
         <v>25</v>
       </c>
@@ -5475,7 +5430,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="110" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" ht="15" thickBot="1">
       <c r="A110" s="2">
         <v>32</v>
       </c>
@@ -5483,7 +5438,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" ht="15" thickBot="1">
       <c r="A111" s="2">
         <v>32</v>
       </c>
@@ -5491,7 +5446,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" ht="15" thickBot="1">
       <c r="A112" s="2">
         <v>41</v>
       </c>
@@ -5499,7 +5454,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" ht="15" thickBot="1">
       <c r="A113" s="2">
         <v>52</v>
       </c>
@@ -5507,7 +5462,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="114" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" ht="15" thickBot="1">
       <c r="A114" s="2">
         <v>52</v>
       </c>
@@ -5515,7 +5470,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="115" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" ht="15" thickBot="1">
       <c r="A115" s="2">
         <v>54</v>
       </c>
@@ -5523,7 +5478,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="116" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" ht="15" thickBot="1">
       <c r="A116" s="2">
         <v>17</v>
       </c>
@@ -5531,7 +5486,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="117" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" ht="15" thickBot="1">
       <c r="A117" s="2">
         <v>37</v>
       </c>
@@ -5539,7 +5494,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="118" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" ht="15" thickBot="1">
       <c r="A118" s="2">
         <v>41</v>
       </c>
@@ -5547,7 +5502,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="119" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" ht="15" thickBot="1">
       <c r="A119" s="2">
         <v>49</v>
       </c>
@@ -5555,7 +5510,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" ht="15" thickBot="1">
       <c r="A120" s="2">
         <v>16</v>
       </c>
@@ -5563,7 +5518,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" ht="15" thickBot="1">
       <c r="A121" s="2">
         <v>45</v>
       </c>
@@ -5571,7 +5526,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" ht="15" thickBot="1">
       <c r="A122" s="2">
         <v>49</v>
       </c>
@@ -5579,7 +5534,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="123" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" ht="15" thickBot="1">
       <c r="A123" s="2">
         <v>49</v>
       </c>
@@ -5587,7 +5542,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="124" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" ht="15" thickBot="1">
       <c r="A124" s="2">
         <v>21</v>
       </c>
@@ -5595,7 +5550,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="125" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" ht="15" thickBot="1">
       <c r="A125" s="2">
         <v>53</v>
       </c>
@@ -5603,7 +5558,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="126" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" ht="15" thickBot="1">
       <c r="A126" s="2">
         <v>53</v>
       </c>
@@ -5611,7 +5566,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="127" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" ht="15" thickBot="1">
       <c r="A127" s="2">
         <v>1</v>
       </c>
@@ -5619,7 +5574,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="128" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" ht="15" thickBot="1">
       <c r="A128" s="2">
         <v>12</v>
       </c>
@@ -5627,7 +5582,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="129" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" ht="15" thickBot="1">
       <c r="A129" s="2">
         <v>14</v>
       </c>
@@ -5635,7 +5590,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="130" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" ht="15" thickBot="1">
       <c r="A130" s="2">
         <v>16</v>
       </c>
@@ -5643,7 +5598,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="131" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" ht="15" thickBot="1">
       <c r="A131" s="2">
         <v>21</v>
       </c>
@@ -5651,7 +5606,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" ht="15" thickBot="1">
       <c r="A132" s="2">
         <v>31</v>
       </c>
@@ -5659,7 +5614,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" ht="15" thickBot="1">
       <c r="A133" s="2">
         <v>32</v>
       </c>
@@ -5667,7 +5622,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="134" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" ht="15" thickBot="1">
       <c r="A134" s="2">
         <v>34</v>
       </c>
@@ -5675,7 +5630,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="135" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" ht="15" thickBot="1">
       <c r="A135" s="2">
         <v>41</v>
       </c>
@@ -5683,7 +5638,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="136" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" ht="15" thickBot="1">
       <c r="A136" s="2">
         <v>43</v>
       </c>
@@ -5691,7 +5646,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" ht="15" thickBot="1">
       <c r="A137" s="2">
         <v>43</v>
       </c>
@@ -5699,7 +5654,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="138" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" ht="15" thickBot="1">
       <c r="A138" s="2">
         <v>45</v>
       </c>
@@ -5707,7 +5662,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="139" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" ht="15" thickBot="1">
       <c r="A139" s="2">
         <v>45</v>
       </c>
@@ -5715,7 +5670,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="140" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" ht="15" thickBot="1">
       <c r="A140" s="2">
         <v>45</v>
       </c>
@@ -5723,7 +5678,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="141" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" ht="15" thickBot="1">
       <c r="A141" s="2">
         <v>45</v>
       </c>
@@ -5731,7 +5686,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" ht="15" thickBot="1">
       <c r="A142" s="2">
         <v>49</v>
       </c>
@@ -5739,7 +5694,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="143" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" ht="15" thickBot="1">
       <c r="A143" s="2">
         <v>51</v>
       </c>
@@ -5747,7 +5702,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="144" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" ht="15" thickBot="1">
       <c r="A144" s="2">
         <v>51</v>
       </c>
@@ -5755,7 +5710,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="145" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" ht="15" thickBot="1">
       <c r="A145" s="2">
         <v>52</v>
       </c>
@@ -5763,7 +5718,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="146" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" ht="15" thickBot="1">
       <c r="A146" s="2">
         <v>53</v>
       </c>
@@ -5771,7 +5726,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="147" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" ht="15" thickBot="1">
       <c r="A147" s="2">
         <v>53</v>
       </c>
@@ -5779,7 +5734,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="148" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:2" ht="15" thickBot="1">
       <c r="A148" s="2">
         <v>53</v>
       </c>
@@ -5787,7 +5742,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="149" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" ht="15" thickBot="1">
       <c r="A149" s="2">
         <v>53</v>
       </c>
@@ -5795,7 +5750,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="150" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" ht="15" thickBot="1">
       <c r="A150" s="2">
         <v>54</v>
       </c>
@@ -5803,7 +5758,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="151" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" ht="15" thickBot="1">
       <c r="A151" s="2">
         <v>19</v>
       </c>
@@ -5811,7 +5766,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="152" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" ht="15" thickBot="1">
       <c r="A152" s="2">
         <v>21</v>
       </c>
@@ -5819,7 +5774,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="153" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" ht="15" thickBot="1">
       <c r="A153" s="2">
         <v>37</v>
       </c>
@@ -5827,7 +5782,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="154" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" ht="15" thickBot="1">
       <c r="A154" s="2">
         <v>12</v>
       </c>
@@ -5835,7 +5790,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="155" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" ht="15" thickBot="1">
       <c r="A155" s="2">
         <v>17</v>
       </c>
@@ -5843,7 +5798,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" ht="15" thickBot="1">
       <c r="A156" s="2">
         <v>17</v>
       </c>
@@ -5851,7 +5806,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="157" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" ht="15" thickBot="1">
       <c r="A157" s="2">
         <v>18</v>
       </c>
@@ -5859,7 +5814,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="158" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" ht="15" thickBot="1">
       <c r="A158" s="2">
         <v>18</v>
       </c>
@@ -5867,7 +5822,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="159" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" ht="15" thickBot="1">
       <c r="A159" s="2">
         <v>21</v>
       </c>
@@ -5875,7 +5830,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="160" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" ht="15" thickBot="1">
       <c r="A160" s="2">
         <v>30</v>
       </c>
@@ -5883,7 +5838,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="161" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" ht="15" thickBot="1">
       <c r="A161" s="2">
         <v>31</v>
       </c>
@@ -5891,7 +5846,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="162" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" ht="15" thickBot="1">
       <c r="A162" s="2">
         <v>32</v>
       </c>
@@ -5899,7 +5854,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="163" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" ht="15" thickBot="1">
       <c r="A163" s="2">
         <v>37</v>
       </c>
@@ -5907,7 +5862,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" ht="15" thickBot="1">
       <c r="A164" s="2">
         <v>41</v>
       </c>
@@ -5915,7 +5870,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="165" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" ht="15" thickBot="1">
       <c r="A165" s="2">
         <v>45</v>
       </c>
@@ -5923,7 +5878,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" ht="15" thickBot="1">
       <c r="A166" s="2">
         <v>51</v>
       </c>
@@ -5931,7 +5886,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" ht="15" thickBot="1">
       <c r="A167" s="2">
         <v>51</v>
       </c>
@@ -5939,7 +5894,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="168" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:2" ht="15" thickBot="1">
       <c r="A168" s="2">
         <v>51</v>
       </c>
@@ -5947,7 +5902,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="169" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" ht="15" thickBot="1">
       <c r="A169" s="2">
         <v>52</v>
       </c>
@@ -5955,7 +5910,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="170" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" ht="15" thickBot="1">
       <c r="A170" s="2">
         <v>54</v>
       </c>
@@ -5963,7 +5918,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="171" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" ht="15" thickBot="1">
       <c r="A171" s="2">
         <v>21</v>
       </c>
@@ -5971,7 +5926,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="172" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" ht="15" thickBot="1">
       <c r="A172" s="2">
         <v>21</v>
       </c>
@@ -5979,7 +5934,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="173" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" ht="15" thickBot="1">
       <c r="A173" s="2">
         <v>39</v>
       </c>
@@ -5987,7 +5942,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="174" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" ht="15" thickBot="1">
       <c r="A174" s="2">
         <v>44</v>
       </c>
@@ -5995,7 +5950,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="175" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" ht="15" thickBot="1">
       <c r="A175" s="2">
         <v>27</v>
       </c>
@@ -6003,7 +5958,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" ht="15" thickBot="1">
       <c r="A176" s="2">
         <v>30</v>
       </c>
@@ -6011,7 +5966,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="177" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" ht="15" thickBot="1">
       <c r="A177" s="2">
         <v>45</v>
       </c>
@@ -6019,7 +5974,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="178" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" ht="15" thickBot="1">
       <c r="A178" s="2">
         <v>46</v>
       </c>
@@ -6027,7 +5982,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="179" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" ht="15" thickBot="1">
       <c r="A179" s="2">
         <v>47</v>
       </c>
@@ -6035,7 +5990,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="180" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" ht="15" thickBot="1">
       <c r="A180" s="2">
         <v>49</v>
       </c>
@@ -6043,7 +5998,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="181" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" ht="15" thickBot="1">
       <c r="A181" s="2">
         <v>53</v>
       </c>
@@ -6051,7 +6006,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" ht="15" thickBot="1">
       <c r="A182" s="2">
         <v>8</v>
       </c>
@@ -6059,7 +6014,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="183" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" ht="15" thickBot="1">
       <c r="A183" s="2">
         <v>8</v>
       </c>
@@ -6067,7 +6022,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="184" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" ht="15" thickBot="1">
       <c r="A184" s="2">
         <v>32</v>
       </c>
@@ -6075,7 +6030,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="185" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" ht="15" thickBot="1">
       <c r="A185" s="2">
         <v>38</v>
       </c>
@@ -6083,7 +6038,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="186" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" ht="15" thickBot="1">
       <c r="A186" s="2">
         <v>41</v>
       </c>
@@ -6091,7 +6046,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="187" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" ht="15" thickBot="1">
       <c r="A187" s="2">
         <v>41</v>
       </c>
@@ -6099,7 +6054,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="188" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" ht="15" thickBot="1">
       <c r="A188" s="2">
         <v>49</v>
       </c>
@@ -6107,7 +6062,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" ht="15" thickBot="1">
       <c r="A189" s="2">
         <v>51</v>
       </c>
@@ -6115,7 +6070,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" ht="15" thickBot="1">
       <c r="A190" s="2">
         <v>51</v>
       </c>
@@ -6123,7 +6078,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="191" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" ht="15" thickBot="1">
       <c r="A191" s="2">
         <v>27</v>
       </c>
@@ -6131,7 +6086,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" ht="15" thickBot="1">
       <c r="A192" s="2">
         <v>6</v>
       </c>
@@ -6139,7 +6094,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" ht="15" thickBot="1">
       <c r="A193" s="2">
         <v>23</v>
       </c>
@@ -6147,7 +6102,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" ht="15" thickBot="1">
       <c r="A194" s="2">
         <v>49</v>
       </c>
@@ -6155,7 +6110,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="195" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:2" ht="15" thickBot="1">
       <c r="A195" s="2">
         <v>49</v>
       </c>
@@ -6163,7 +6118,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" ht="15" thickBot="1">
       <c r="A196" s="2">
         <v>53</v>
       </c>
@@ -6171,7 +6126,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="197" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" ht="15" thickBot="1">
       <c r="A197" s="2">
         <v>55</v>
       </c>
@@ -6179,7 +6134,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="198" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" ht="15" thickBot="1">
       <c r="A198" s="2">
         <v>16</v>
       </c>
@@ -6187,7 +6142,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="199" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" ht="15" thickBot="1">
       <c r="A199" s="2">
         <v>41</v>
       </c>
@@ -6195,7 +6150,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="200" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" ht="15" thickBot="1">
       <c r="A200" s="2">
         <v>41</v>
       </c>
@@ -6203,7 +6158,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="201" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" ht="15" thickBot="1">
       <c r="A201" s="2">
         <v>41</v>
       </c>
@@ -6211,7 +6166,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="202" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" ht="15" thickBot="1">
       <c r="A202" s="2">
         <v>53</v>
       </c>
@@ -6219,7 +6174,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" ht="15" thickBot="1">
       <c r="A203" s="2">
         <v>27</v>
       </c>
@@ -6227,7 +6182,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="204" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" ht="15" thickBot="1">
       <c r="A204" s="2">
         <v>50</v>
       </c>
@@ -6235,7 +6190,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="205" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" ht="15" thickBot="1">
       <c r="A205" s="2">
         <v>16</v>
       </c>
@@ -6243,7 +6198,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" ht="15" thickBot="1">
       <c r="A206" s="2">
         <v>41</v>
       </c>
@@ -6251,7 +6206,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:2" ht="15" thickBot="1">
       <c r="A207" s="2">
         <v>41</v>
       </c>
@@ -6259,7 +6214,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="208" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" ht="15" thickBot="1">
       <c r="A208" s="2">
         <v>41</v>
       </c>
@@ -6267,7 +6222,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="209" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" ht="15" thickBot="1">
       <c r="A209" s="2">
         <v>41</v>
       </c>
@@ -6275,7 +6230,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="210" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" ht="15" thickBot="1">
       <c r="A210" s="2">
         <v>42</v>
       </c>
@@ -6283,7 +6238,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="211" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" ht="15" thickBot="1">
       <c r="A211" s="2">
         <v>45</v>
       </c>
@@ -6291,7 +6246,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="212" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" ht="15" thickBot="1">
       <c r="A212" s="2">
         <v>52</v>
       </c>
@@ -6299,7 +6254,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="213" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" ht="15" thickBot="1">
       <c r="A213" s="2">
         <v>54</v>
       </c>
@@ -6307,7 +6262,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="214" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" ht="15" thickBot="1">
       <c r="A214" s="2">
         <v>54</v>
       </c>
@@ -6315,7 +6270,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="215" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:2" ht="15" thickBot="1">
       <c r="A215" s="2">
         <v>16</v>
       </c>
@@ -6323,7 +6278,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" ht="15" thickBot="1">
       <c r="A216" s="2">
         <v>14</v>
       </c>
@@ -6331,7 +6286,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="217" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:2" ht="15" thickBot="1">
       <c r="A217" s="2">
         <v>17</v>
       </c>
@@ -6339,7 +6294,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="218" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" ht="15" thickBot="1">
       <c r="A218" s="2">
         <v>17</v>
       </c>
@@ -6347,7 +6302,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="219" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:2" ht="15" thickBot="1">
       <c r="A219" s="2">
         <v>27</v>
       </c>
@@ -6355,7 +6310,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="220" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:2" ht="15" thickBot="1">
       <c r="A220" s="2">
         <v>51</v>
       </c>
@@ -6363,7 +6318,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="221" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:2" ht="15" thickBot="1">
       <c r="A221" s="2">
         <v>41</v>
       </c>
@@ -6371,7 +6326,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="222" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:2" ht="15" thickBot="1">
       <c r="A222" s="2">
         <v>41</v>
       </c>
@@ -6379,7 +6334,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="223" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:2" ht="15" thickBot="1">
       <c r="A223" s="2">
         <v>47</v>
       </c>
@@ -6387,7 +6342,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="224" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:2" ht="15" thickBot="1">
       <c r="A224" s="2">
         <v>47</v>
       </c>
@@ -6395,7 +6350,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="225" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:2" ht="15" thickBot="1">
       <c r="A225" s="2">
         <v>52</v>
       </c>
@@ -6403,7 +6358,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="226" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:2" ht="15" thickBot="1">
       <c r="A226" s="2">
         <v>52</v>
       </c>
@@ -6411,7 +6366,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="227" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:2" ht="15" thickBot="1">
       <c r="A227" s="2">
         <v>52</v>
       </c>
@@ -6419,7 +6374,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="228" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:2" ht="15" thickBot="1">
       <c r="A228" s="2">
         <v>52</v>
       </c>
@@ -6427,7 +6382,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="229" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:2" ht="15" thickBot="1">
       <c r="A229" s="2">
         <v>54</v>
       </c>
@@ -6435,7 +6390,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="230" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:2" ht="15" thickBot="1">
       <c r="A230" s="2">
         <v>35</v>
       </c>
@@ -6443,7 +6398,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="231" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:2" ht="15" thickBot="1">
       <c r="A231" s="2">
         <v>35</v>
       </c>
@@ -6451,7 +6406,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="232" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:2" ht="15" thickBot="1">
       <c r="A232" s="2">
         <v>14</v>
       </c>
@@ -6459,7 +6414,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="233" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:2" ht="15" thickBot="1">
       <c r="A233" s="2">
         <v>6</v>
       </c>
@@ -6467,7 +6422,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="234" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:2" ht="15" thickBot="1">
       <c r="A234" s="2">
         <v>39</v>
       </c>
@@ -6475,7 +6430,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="235" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:2" ht="15" thickBot="1">
       <c r="A235" s="2">
         <v>44</v>
       </c>
@@ -6483,7 +6438,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="236" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:2" ht="15" thickBot="1">
       <c r="A236" s="2">
         <v>39</v>
       </c>
@@ -6491,7 +6446,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="237" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:2" ht="15" thickBot="1">
       <c r="A237" s="2">
         <v>2</v>
       </c>
@@ -6499,7 +6454,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="238" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:2" ht="15" thickBot="1">
       <c r="A238" s="2">
         <v>2</v>
       </c>
@@ -6507,7 +6462,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="239" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:2" ht="15" thickBot="1">
       <c r="A239" s="2">
         <v>44</v>
       </c>
@@ -6515,7 +6470,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="240" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:2" ht="15" thickBot="1">
       <c r="A240" s="2">
         <v>44</v>
       </c>
@@ -6523,7 +6478,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="241" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:2" ht="15" thickBot="1">
       <c r="A241" s="2">
         <v>44</v>
       </c>
@@ -6531,7 +6486,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="242" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:2" ht="15" thickBot="1">
       <c r="A242" s="2">
         <v>24</v>
       </c>
@@ -6539,7 +6494,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="243" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:2" ht="15" thickBot="1">
       <c r="A243" s="2">
         <v>2</v>
       </c>
@@ -6547,7 +6502,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="244" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:2" ht="15" thickBot="1">
       <c r="A244" s="2">
         <v>2</v>
       </c>
@@ -6555,7 +6510,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="245" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:2" ht="15" thickBot="1">
       <c r="A245" s="2">
         <v>2</v>
       </c>
@@ -6563,7 +6518,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="246" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:2" ht="15" thickBot="1">
       <c r="A246" s="2">
         <v>39</v>
       </c>
@@ -6571,7 +6526,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="247" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:2" ht="15" thickBot="1">
       <c r="A247" s="2">
         <v>44</v>
       </c>
@@ -6579,7 +6534,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="248" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:2" ht="15" thickBot="1">
       <c r="A248" s="2">
         <v>32</v>
       </c>
@@ -6587,7 +6542,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="249" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:2" ht="15" thickBot="1">
       <c r="A249" s="2">
         <v>48</v>
       </c>
@@ -6595,7 +6550,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="250" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:2" ht="15" thickBot="1">
       <c r="A250" s="2">
         <v>44</v>
       </c>
@@ -6603,7 +6558,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="251" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:2" ht="15" thickBot="1">
       <c r="A251" s="2">
         <v>44</v>
       </c>
@@ -6611,7 +6566,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="252" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:2" ht="15" thickBot="1">
       <c r="A252" s="2">
         <v>44</v>
       </c>
@@ -6619,7 +6574,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="253" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:2" ht="15" thickBot="1">
       <c r="A253" s="2">
         <v>44</v>
       </c>
@@ -6627,7 +6582,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="254" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:2" ht="15" thickBot="1">
       <c r="A254" s="2">
         <v>44</v>
       </c>
@@ -6635,7 +6590,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="255" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:2" ht="15" thickBot="1">
       <c r="A255" s="2">
         <v>44</v>
       </c>
@@ -6643,7 +6598,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="256" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:2" ht="15" thickBot="1">
       <c r="A256" s="2">
         <v>44</v>
       </c>
@@ -6651,7 +6606,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="257" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:2" ht="15" thickBot="1">
       <c r="A257" s="2">
         <v>44</v>
       </c>
@@ -6659,7 +6614,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="258" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:2" ht="15" thickBot="1">
       <c r="A258" s="2">
         <v>44</v>
       </c>
@@ -6667,7 +6622,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="259" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:2" ht="15" thickBot="1">
       <c r="A259" s="2">
         <v>2</v>
       </c>
@@ -6675,7 +6630,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="260" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:2" ht="15" thickBot="1">
       <c r="A260" s="2">
         <v>6</v>
       </c>
@@ -6683,7 +6638,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="261" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:2" ht="15" thickBot="1">
       <c r="A261" s="2">
         <v>44</v>
       </c>
@@ -6691,7 +6646,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="262" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:2" ht="15" thickBot="1">
       <c r="A262" s="2">
         <v>44</v>
       </c>
@@ -6699,7 +6654,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="263" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:2" ht="15" thickBot="1">
       <c r="A263" s="2">
         <v>24</v>
       </c>
@@ -6707,7 +6662,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="264" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:2" ht="15" thickBot="1">
       <c r="A264" s="2">
         <v>11</v>
       </c>
@@ -6715,7 +6670,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="265" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:2" ht="15" thickBot="1">
       <c r="A265" s="2">
         <v>11</v>
       </c>
@@ -6723,7 +6678,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="266" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:2" ht="15" thickBot="1">
       <c r="A266" s="2">
         <v>11</v>
       </c>
@@ -6731,7 +6686,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="267" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:2" ht="15" thickBot="1">
       <c r="A267" s="2">
         <v>44</v>
       </c>
@@ -6739,7 +6694,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="268" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:2" ht="15" thickBot="1">
       <c r="A268" s="2">
         <v>44</v>
       </c>
@@ -6747,7 +6702,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="269" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:2" ht="15" thickBot="1">
       <c r="A269" s="2">
         <v>6</v>
       </c>
@@ -6755,7 +6710,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="270" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:2" ht="15" thickBot="1">
       <c r="A270" s="2">
         <v>2</v>
       </c>
@@ -6763,7 +6718,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="271" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:2" ht="15" thickBot="1">
       <c r="A271" s="2">
         <v>14</v>
       </c>
@@ -6771,7 +6726,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="272" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:2" ht="15" thickBot="1">
       <c r="A272" s="2">
         <v>14</v>
       </c>
@@ -6779,7 +6734,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="273" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:2" ht="15" thickBot="1">
       <c r="A273" s="2">
         <v>14</v>
       </c>
@@ -6787,7 +6742,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="274" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:2" ht="15" thickBot="1">
       <c r="A274" s="2">
         <v>14</v>
       </c>
@@ -6795,7 +6750,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="275" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:2" ht="15" thickBot="1">
       <c r="A275" s="2">
         <v>48</v>
       </c>
@@ -6803,7 +6758,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="276" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:2" ht="15" thickBot="1">
       <c r="A276" s="2">
         <v>44</v>
       </c>
@@ -6811,7 +6766,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="277" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:2" ht="15" thickBot="1">
       <c r="A277" s="2">
         <v>44</v>
       </c>
@@ -6819,7 +6774,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="278" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:2" ht="15" thickBot="1">
       <c r="A278" s="2">
         <v>2</v>
       </c>
@@ -6827,7 +6782,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="279" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:2" ht="15" thickBot="1">
       <c r="A279" s="2">
         <v>2</v>
       </c>
@@ -6835,7 +6790,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="280" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:2" ht="15" thickBot="1">
       <c r="A280" s="2">
         <v>14</v>
       </c>
@@ -6843,7 +6798,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="281" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:2" ht="15" thickBot="1">
       <c r="A281" s="2">
         <v>14</v>
       </c>
@@ -6851,7 +6806,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="282" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:2" ht="15" thickBot="1">
       <c r="A282" s="2">
         <v>39</v>
       </c>
@@ -6859,7 +6814,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="283" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:2" ht="15" thickBot="1">
       <c r="A283" s="2">
         <v>44</v>
       </c>
@@ -6867,7 +6822,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="284" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:2" ht="15" thickBot="1">
       <c r="A284" s="2">
         <v>44</v>
       </c>
@@ -6875,7 +6830,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="285" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:2" ht="15" thickBot="1">
       <c r="A285" s="2">
         <v>44</v>
       </c>
@@ -6883,7 +6838,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="286" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:2" ht="15" thickBot="1">
       <c r="A286" s="2">
         <v>44</v>
       </c>
@@ -6891,7 +6846,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="287" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:2" ht="15" thickBot="1">
       <c r="A287" s="2">
         <v>44</v>
       </c>
@@ -6899,7 +6854,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="288" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:2" ht="15" thickBot="1">
       <c r="A288" s="2">
         <v>27</v>
       </c>
@@ -6907,7 +6862,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="289" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:2" ht="15" thickBot="1">
       <c r="A289" s="2">
         <v>3</v>
       </c>
@@ -6915,7 +6870,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="290" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:2" ht="15" thickBot="1">
       <c r="A290" s="2">
         <v>3</v>
       </c>
@@ -6923,7 +6878,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="291" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:2" ht="15" thickBot="1">
       <c r="A291" s="2">
         <v>50</v>
       </c>
@@ -6931,7 +6886,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="292" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:2" ht="15" thickBot="1">
       <c r="A292" s="2">
         <v>32</v>
       </c>
@@ -6939,7 +6894,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="293" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:2" ht="15" thickBot="1">
       <c r="A293" s="2">
         <v>27</v>
       </c>
@@ -6947,7 +6902,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="294" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:2" ht="15" thickBot="1">
       <c r="A294" s="2">
         <v>53</v>
       </c>
@@ -6955,7 +6910,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="295" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:2" ht="15" thickBot="1">
       <c r="A295" s="2">
         <v>38</v>
       </c>
@@ -6963,7 +6918,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="296" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:2" ht="15" thickBot="1">
       <c r="A296" s="2">
         <v>23</v>
       </c>
@@ -6971,7 +6926,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="297" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:2" ht="15" thickBot="1">
       <c r="A297" s="2">
         <v>23</v>
       </c>
@@ -6979,7 +6934,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="298" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:2" ht="15" thickBot="1">
       <c r="A298" s="2">
         <v>23</v>
       </c>
@@ -6987,7 +6942,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="299" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:2" ht="15" thickBot="1">
       <c r="A299" s="2">
         <v>53</v>
       </c>
@@ -6995,7 +6950,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="300" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:2" ht="15" thickBot="1">
       <c r="A300" s="2">
         <v>53</v>
       </c>
@@ -7003,7 +6958,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="301" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:2" ht="15" thickBot="1">
       <c r="A301" s="2">
         <v>7</v>
       </c>
@@ -7011,7 +6966,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="302" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:2" ht="15" thickBot="1">
       <c r="A302" s="2">
         <v>7</v>
       </c>
@@ -7019,7 +6974,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="303" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:2" ht="15" thickBot="1">
       <c r="A303" s="2">
         <v>16</v>
       </c>
@@ -7027,7 +6982,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="304" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:2" ht="15" thickBot="1">
       <c r="A304" s="2">
         <v>14</v>
       </c>
@@ -7035,7 +6990,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="305" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:2" ht="15" thickBot="1">
       <c r="A305" s="2">
         <v>22</v>
       </c>
@@ -7043,7 +6998,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="306" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:2" ht="15" thickBot="1">
       <c r="A306" s="2">
         <v>10</v>
       </c>
@@ -7051,7 +7006,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="307" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:2" ht="15" thickBot="1">
       <c r="A307" s="2">
         <v>3</v>
       </c>
@@ -7059,7 +7014,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="308" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:2" ht="15" thickBot="1">
       <c r="A308" s="2">
         <v>14</v>
       </c>
@@ -7067,7 +7022,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="309" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:2" ht="15" thickBot="1">
       <c r="A309" s="2">
         <v>14</v>
       </c>
@@ -7075,7 +7030,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="310" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:2" ht="15" thickBot="1">
       <c r="A310" s="2">
         <v>10</v>
       </c>
@@ -7083,7 +7038,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="311" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:2" ht="15" thickBot="1">
       <c r="A311" s="2">
         <v>55</v>
       </c>
@@ -7091,7 +7046,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="312" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:2" ht="15" thickBot="1">
       <c r="A312" s="2">
         <v>55</v>
       </c>
@@ -7099,7 +7054,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="313" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:2" ht="15" thickBot="1">
       <c r="A313" s="2">
         <v>50</v>
       </c>
@@ -7107,7 +7062,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="314" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:2" ht="15" thickBot="1">
       <c r="A314" s="2">
         <v>50</v>
       </c>
@@ -7115,7 +7070,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="315" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:2" ht="15" thickBot="1">
       <c r="A315" s="2">
         <v>32</v>
       </c>
@@ -7123,7 +7078,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="316" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:2" ht="15" thickBot="1">
       <c r="A316" s="2">
         <v>32</v>
       </c>
@@ -7131,7 +7086,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="317" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:2" ht="15" thickBot="1">
       <c r="A317" s="2">
         <v>24</v>
       </c>
@@ -7139,7 +7094,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="318" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:2" ht="15" thickBot="1">
       <c r="A318" s="2">
         <v>53</v>
       </c>
@@ -7147,7 +7102,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="319" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:2" ht="15" thickBot="1">
       <c r="A319" s="2">
         <v>3</v>
       </c>
@@ -7155,7 +7110,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="320" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:2" ht="15" thickBot="1">
       <c r="A320" s="2">
         <v>1</v>
       </c>
@@ -7163,7 +7118,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="321" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:2" ht="15" thickBot="1">
       <c r="A321" s="2">
         <v>8</v>
       </c>
@@ -7171,7 +7126,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="322" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:2" ht="15" thickBot="1">
       <c r="A322" s="2">
         <v>8</v>
       </c>
@@ -7179,7 +7134,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="323" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:2" ht="15" thickBot="1">
       <c r="A323" s="2">
         <v>50</v>
       </c>
@@ -7187,7 +7142,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="324" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:2" ht="15" thickBot="1">
       <c r="A324" s="2">
         <v>48</v>
       </c>
@@ -7195,7 +7150,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="325" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:2" ht="15" thickBot="1">
       <c r="A325" s="2">
         <v>4</v>
       </c>
@@ -7203,7 +7158,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="326" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:2" ht="15" thickBot="1">
       <c r="A326" s="2">
         <v>4</v>
       </c>
@@ -7211,7 +7166,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="327" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:2" ht="15" thickBot="1">
       <c r="A327" s="2">
         <v>53</v>
       </c>
@@ -7219,7 +7174,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="328" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:2" ht="15" thickBot="1">
       <c r="A328" s="2">
         <v>53</v>
       </c>
@@ -7227,7 +7182,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="329" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:2" ht="15" thickBot="1">
       <c r="A329" s="2">
         <v>21</v>
       </c>
@@ -7235,7 +7190,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="330" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:2" ht="15" thickBot="1">
       <c r="A330" s="2">
         <v>29</v>
       </c>
@@ -7243,7 +7198,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="331" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:2" ht="15" thickBot="1">
       <c r="A331" s="2">
         <v>56</v>
       </c>
@@ -7251,7 +7206,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="332" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:2" ht="15" thickBot="1">
       <c r="A332" s="2">
         <v>27</v>
       </c>
@@ -7259,7 +7214,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="333" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:2" ht="15" thickBot="1">
       <c r="A333" s="2">
         <v>56</v>
       </c>
@@ -7267,7 +7222,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="334" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:2" ht="15" thickBot="1">
       <c r="A334" s="2">
         <v>27</v>
       </c>
@@ -7275,7 +7230,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="335" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:2" ht="15" thickBot="1">
       <c r="A335" s="2">
         <v>56</v>
       </c>
@@ -7283,7 +7238,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="336" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:2" ht="15" thickBot="1">
       <c r="A336" s="2">
         <v>56</v>
       </c>
@@ -7291,7 +7246,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="337" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:2" ht="15" thickBot="1">
       <c r="A337" s="2">
         <v>21</v>
       </c>
@@ -7299,7 +7254,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="338" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:2" ht="15" thickBot="1">
       <c r="A338" s="2">
         <v>21</v>
       </c>
@@ -7307,7 +7262,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="339" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:2" ht="15" thickBot="1">
       <c r="A339" s="2">
         <v>27</v>
       </c>
@@ -7315,7 +7270,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="340" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:2" ht="15" thickBot="1">
       <c r="A340" s="2">
         <v>27</v>
       </c>
@@ -7323,7 +7278,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="341" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:2" ht="15" thickBot="1">
       <c r="A341" s="2">
         <v>34</v>
       </c>
@@ -7331,7 +7286,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="342" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:2" ht="15" thickBot="1">
       <c r="A342" s="2">
         <v>27</v>
       </c>
@@ -7339,7 +7294,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="343" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:2" ht="15" thickBot="1">
       <c r="A343" s="2">
         <v>21</v>
       </c>
@@ -7347,7 +7302,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="344" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:2" ht="15" thickBot="1">
       <c r="A344" s="2">
         <v>21</v>
       </c>
@@ -7355,7 +7310,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="345" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:2" ht="15" thickBot="1">
       <c r="A345" s="2">
         <v>9</v>
       </c>
@@ -7363,7 +7318,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="346" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:2" ht="15" thickBot="1">
       <c r="A346" s="2">
         <v>36</v>
       </c>
@@ -7371,7 +7326,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="347" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:2" ht="15" thickBot="1">
       <c r="A347" s="2">
         <v>33</v>
       </c>
@@ -7379,7 +7334,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="348" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:2" ht="15" thickBot="1">
       <c r="A348" s="2">
         <v>21</v>
       </c>
@@ -7387,7 +7342,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="349" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:2" ht="15" thickBot="1">
       <c r="A349" s="2">
         <v>21</v>
       </c>
@@ -7395,7 +7350,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="350" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:2" ht="15" thickBot="1">
       <c r="A350" s="2">
         <v>21</v>
       </c>
@@ -7403,7 +7358,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="351" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:2" ht="15" thickBot="1">
       <c r="A351" s="2">
         <v>36</v>
       </c>
@@ -7411,7 +7366,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="352" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:2" ht="15" thickBot="1">
       <c r="A352" s="2">
         <v>21</v>
       </c>
@@ -7419,7 +7374,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="353" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:2" ht="15" thickBot="1">
       <c r="A353" s="2">
         <v>56</v>
       </c>
@@ -7427,7 +7382,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="354" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:2" ht="15" thickBot="1">
       <c r="A354" s="2">
         <v>21</v>
       </c>
@@ -7435,7 +7390,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="355" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:2" ht="15" thickBot="1">
       <c r="A355" s="2">
         <v>36</v>
       </c>
@@ -7443,7 +7398,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="356" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:2" ht="15" thickBot="1">
       <c r="A356" s="2">
         <v>36</v>
       </c>
@@ -7451,7 +7406,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="357" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:2" ht="15" thickBot="1">
       <c r="A357" s="2">
         <v>50</v>
       </c>
@@ -7459,7 +7414,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="358" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:2" ht="15" thickBot="1">
       <c r="A358" s="2">
         <v>9</v>
       </c>
@@ -7467,7 +7422,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="359" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:2" ht="15" thickBot="1">
       <c r="A359" s="2">
         <v>21</v>
       </c>
@@ -7475,7 +7430,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="360" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:2" ht="15" thickBot="1">
       <c r="A360" s="2">
         <v>3</v>
       </c>
@@ -7483,7 +7438,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="361" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:2" ht="15" thickBot="1">
       <c r="A361" s="2">
         <v>21</v>
       </c>
@@ -7491,7 +7446,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="362" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:2" ht="15" thickBot="1">
       <c r="A362" s="2">
         <v>21</v>
       </c>
@@ -7499,7 +7454,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="363" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:2" ht="15" thickBot="1">
       <c r="A363" s="2">
         <v>36</v>
       </c>
@@ -7507,7 +7462,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="364" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:2" ht="15" thickBot="1">
       <c r="A364" s="2">
         <v>36</v>
       </c>
@@ -7515,7 +7470,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="365" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:2" ht="15" thickBot="1">
       <c r="A365" s="2">
         <v>3</v>
       </c>
@@ -7523,7 +7478,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="366" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:2" ht="15" thickBot="1">
       <c r="A366" s="2">
         <v>3</v>
       </c>
@@ -7531,7 +7486,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="367" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:2" ht="15" thickBot="1">
       <c r="A367" s="2">
         <v>21</v>
       </c>
@@ -7539,7 +7494,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="368" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:2" ht="15" thickBot="1">
       <c r="A368" s="2">
         <v>3</v>
       </c>
@@ -7547,7 +7502,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="369" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:2" ht="15" thickBot="1">
       <c r="A369" s="2">
         <v>27</v>
       </c>
@@ -7555,7 +7510,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="370" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:2" ht="15" thickBot="1">
       <c r="A370" s="2">
         <v>33</v>
       </c>
@@ -7563,7 +7518,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="371" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:2" ht="15" thickBot="1">
       <c r="A371" s="2">
         <v>33</v>
       </c>
@@ -7571,7 +7526,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="372" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:2" ht="15" thickBot="1">
       <c r="A372" s="2">
         <v>27</v>
       </c>
@@ -7579,7 +7534,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="373" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:2" ht="15" thickBot="1">
       <c r="A373" s="2">
         <v>15</v>
       </c>
@@ -7587,7 +7542,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="374" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:2" ht="15" thickBot="1">
       <c r="A374" s="2">
         <v>56</v>
       </c>
@@ -7595,7 +7550,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="375" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:2" ht="15" thickBot="1">
       <c r="A375" s="2">
         <v>29</v>
       </c>
@@ -7603,7 +7558,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="376" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:2" ht="15" thickBot="1">
       <c r="A376" s="2">
         <v>36</v>
       </c>
@@ -7611,7 +7566,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="377" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:2" ht="15" thickBot="1">
       <c r="A377" s="2">
         <v>9</v>
       </c>
@@ -7619,7 +7574,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="378" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:2" ht="15" thickBot="1">
       <c r="A378" s="2">
         <v>15</v>
       </c>
@@ -7627,7 +7582,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="379" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:2" ht="15" thickBot="1">
       <c r="A379" s="2">
         <v>36</v>
       </c>
@@ -7635,7 +7590,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="380" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:2" ht="15" thickBot="1">
       <c r="A380" s="2">
         <v>15</v>
       </c>
@@ -7643,7 +7598,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="381" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:2" ht="15" thickBot="1">
       <c r="A381" s="2">
         <v>9</v>
       </c>
@@ -7651,7 +7606,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="382" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:2" ht="15" thickBot="1">
       <c r="A382" s="2">
         <v>9</v>
       </c>
@@ -7659,7 +7614,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="383" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:2" ht="15" thickBot="1">
       <c r="A383" s="2">
         <v>29</v>
       </c>
@@ -7667,7 +7622,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="384" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:2" ht="15" thickBot="1">
       <c r="A384" s="2">
         <v>29</v>
       </c>
@@ -7675,7 +7630,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="385" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:2" ht="15" thickBot="1">
       <c r="A385" s="2">
         <v>45</v>
       </c>
@@ -7683,7 +7638,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="386" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:2" ht="15" thickBot="1">
       <c r="A386" s="2">
         <v>45</v>
       </c>
@@ -7691,7 +7646,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="387" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:2" ht="15" thickBot="1">
       <c r="A387" s="2">
         <v>29</v>
       </c>
@@ -7699,7 +7654,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="388" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:2" ht="15" thickBot="1">
       <c r="A388" s="2">
         <v>21</v>
       </c>
@@ -7707,7 +7662,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="389" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:2" ht="15" thickBot="1">
       <c r="A389" s="2">
         <v>27</v>
       </c>
@@ -7715,7 +7670,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="390" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:2" ht="15" thickBot="1">
       <c r="A390" s="2">
         <v>3</v>
       </c>
@@ -7723,7 +7678,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="391" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:2" ht="15" thickBot="1">
       <c r="A391" s="2">
         <v>56</v>
       </c>
@@ -7731,7 +7686,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="392" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:2" ht="15" thickBot="1">
       <c r="A392" s="2">
         <v>56</v>
       </c>
@@ -7739,7 +7694,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="393" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:2" ht="15" thickBot="1">
       <c r="A393" s="2">
         <v>56</v>
       </c>
@@ -7747,7 +7702,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="394" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:2" ht="15" thickBot="1">
       <c r="A394" s="2">
         <v>56</v>
       </c>
@@ -7755,7 +7710,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="395" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:2" ht="15" thickBot="1">
       <c r="A395" s="2">
         <v>56</v>
       </c>
@@ -7763,7 +7718,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="396" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:2" ht="15" thickBot="1">
       <c r="A396" s="2">
         <v>56</v>
       </c>
@@ -7771,7 +7726,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="397" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:2" ht="15" thickBot="1">
       <c r="A397" s="2">
         <v>56</v>
       </c>
@@ -7779,7 +7734,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="398" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:2" ht="15" thickBot="1">
       <c r="A398" s="2">
         <v>29</v>
       </c>
@@ -7787,7 +7742,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="399" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:2" ht="15" thickBot="1">
       <c r="A399" s="2">
         <v>15</v>
       </c>
@@ -7795,7 +7750,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="400" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:2" ht="15" thickBot="1">
       <c r="A400" s="2">
         <v>29</v>
       </c>
@@ -7803,7 +7758,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="401" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:2" ht="15" thickBot="1">
       <c r="A401" s="2">
         <v>36</v>
       </c>
@@ -7811,7 +7766,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="402" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:2" ht="15" thickBot="1">
       <c r="A402" s="2">
         <v>36</v>
       </c>
@@ -7819,7 +7774,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="403" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:2" ht="15" thickBot="1">
       <c r="A403" s="2">
         <v>9</v>
       </c>
@@ -7827,7 +7782,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="404" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:2" ht="15" thickBot="1">
       <c r="A404" s="2">
         <v>21</v>
       </c>
@@ -7835,7 +7790,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="405" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:2" ht="15" thickBot="1">
       <c r="A405" s="2">
         <v>9</v>
       </c>
@@ -7843,7 +7798,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="406" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:2" ht="15" thickBot="1">
       <c r="A406" s="2">
         <v>21</v>
       </c>
@@ -7851,7 +7806,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="407" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:2" ht="15" thickBot="1">
       <c r="A407" s="2">
         <v>9</v>
       </c>
@@ -7859,7 +7814,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="408" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:2" ht="15" thickBot="1">
       <c r="A408" s="2">
         <v>36</v>
       </c>
@@ -7867,7 +7822,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="409" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:2" ht="15" thickBot="1">
       <c r="A409" s="2">
         <v>36</v>
       </c>
@@ -7875,7 +7830,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="410" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:2" ht="15" thickBot="1">
       <c r="A410" s="2">
         <v>36</v>
       </c>
@@ -7883,7 +7838,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="411" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:2" ht="15" thickBot="1">
       <c r="A411" s="2">
         <v>21</v>
       </c>
@@ -7891,7 +7846,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="412" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:2" ht="15" thickBot="1">
       <c r="A412" s="2">
         <v>29</v>
       </c>
@@ -7899,7 +7854,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="413" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:2" ht="15" thickBot="1">
       <c r="A413" s="2">
         <v>45</v>
       </c>
@@ -7907,7 +7862,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="414" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:2" ht="15" thickBot="1">
       <c r="A414" s="2">
         <v>20</v>
       </c>
@@ -7915,7 +7870,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="415" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:2" ht="15" thickBot="1">
       <c r="A415" s="2">
         <v>29</v>
       </c>
@@ -7923,7 +7878,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="416" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:2" ht="15" thickBot="1">
       <c r="A416" s="2">
         <v>21</v>
       </c>
@@ -7931,7 +7886,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="417" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:2" ht="15" thickBot="1">
       <c r="A417" s="2">
         <v>56</v>
       </c>
@@ -7939,7 +7894,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="418" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:2" ht="15" thickBot="1">
       <c r="A418" s="2">
         <v>56</v>
       </c>
@@ -7947,7 +7902,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="419" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:2" ht="15" thickBot="1">
       <c r="A419" s="2">
         <v>29</v>
       </c>
@@ -7955,7 +7910,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="420" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:2" ht="15" thickBot="1">
       <c r="A420" s="2">
         <v>9</v>
       </c>
@@ -7963,7 +7918,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="421" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:2" ht="15" thickBot="1">
       <c r="A421" s="2">
         <v>21</v>
       </c>
@@ -7971,7 +7926,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="422" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:2" ht="15" thickBot="1">
       <c r="A422" s="2">
         <v>21</v>
       </c>
@@ -7979,7 +7934,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="423" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:2" ht="15" thickBot="1">
       <c r="A423" s="2">
         <v>29</v>
       </c>
@@ -7987,7 +7942,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="424" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:2" ht="15" thickBot="1">
       <c r="A424" s="2">
         <v>33</v>
       </c>
@@ -7995,7 +7950,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="425" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:2" ht="15" thickBot="1">
       <c r="A425" s="2">
         <v>33</v>
       </c>
@@ -8003,7 +7958,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="426" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:2" ht="15" thickBot="1">
       <c r="A426" s="2">
         <v>18</v>
       </c>
@@ -8011,7 +7966,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="427" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:2" ht="15" thickBot="1">
       <c r="A427" s="2">
         <v>18</v>
       </c>
@@ -8019,7 +7974,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="428" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:2" ht="15" thickBot="1">
       <c r="A428" s="2">
         <v>29</v>
       </c>
@@ -8027,7 +7982,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="429" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:2" ht="15" thickBot="1">
       <c r="A429" s="2">
         <v>20</v>
       </c>
@@ -8035,7 +7990,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="430" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:2" ht="15" thickBot="1">
       <c r="A430" s="2">
         <v>20</v>
       </c>
@@ -8043,7 +7998,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="431" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:2" ht="15" thickBot="1">
       <c r="A431" s="2">
         <v>53</v>
       </c>
@@ -8051,7 +8006,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="432" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:2" ht="15" thickBot="1">
       <c r="A432" s="2">
         <v>53</v>
       </c>
@@ -8059,7 +8014,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="433" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:2" ht="15" thickBot="1">
       <c r="A433" s="2">
         <v>53</v>
       </c>
@@ -8067,7 +8022,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="434" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:2" ht="15" thickBot="1">
       <c r="A434" s="2">
         <v>9</v>
       </c>
@@ -8075,7 +8030,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="435" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:2" ht="15" thickBot="1">
       <c r="A435" s="2">
         <v>9</v>
       </c>
@@ -8083,7 +8038,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="436" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:2" ht="15" thickBot="1">
       <c r="A436" s="2">
         <v>42</v>
       </c>
@@ -8091,7 +8046,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="437" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:2" ht="15" thickBot="1">
       <c r="A437" s="2">
         <v>21</v>
       </c>
@@ -8099,7 +8054,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="438" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:2" ht="15" thickBot="1">
       <c r="A438" s="2">
         <v>29</v>
       </c>
@@ -8107,7 +8062,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="439" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:2" ht="15" thickBot="1">
       <c r="A439" s="2">
         <v>18</v>
       </c>
@@ -8115,7 +8070,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="440" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:2" ht="15" thickBot="1">
       <c r="A440" s="2">
         <v>20</v>
       </c>
@@ -8123,7 +8078,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="441" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:2" ht="15" thickBot="1">
       <c r="A441" s="2">
         <v>56</v>
       </c>
@@ -8131,7 +8086,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="442" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:2" ht="15" thickBot="1">
       <c r="A442" s="2">
         <v>21</v>
       </c>
@@ -8139,7 +8094,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="443" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:2" ht="15" thickBot="1">
       <c r="A443" s="2">
         <v>21</v>
       </c>
@@ -8147,7 +8102,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="444" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:2" ht="15" thickBot="1">
       <c r="A444" s="2">
         <v>21</v>
       </c>
@@ -8155,7 +8110,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="445" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:2" ht="15" thickBot="1">
       <c r="A445" s="2">
         <v>21</v>
       </c>
@@ -8163,7 +8118,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="446" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:2" ht="15" thickBot="1">
       <c r="A446" s="2">
         <v>53</v>
       </c>
@@ -8171,7 +8126,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="447" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:2" ht="15" thickBot="1">
       <c r="A447" s="2">
         <v>53</v>
       </c>
@@ -8179,7 +8134,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="448" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:2" ht="15" thickBot="1">
       <c r="A448" s="2">
         <v>15</v>
       </c>
@@ -8187,7 +8142,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="449" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:2" ht="15" thickBot="1">
       <c r="A449" s="2">
         <v>15</v>
       </c>
@@ -8195,7 +8150,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="450" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:2" ht="15" thickBot="1">
       <c r="A450" s="2">
         <v>20</v>
       </c>
@@ -8203,7 +8158,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="451" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:2" ht="15" thickBot="1">
       <c r="A451" s="2">
         <v>21</v>
       </c>
@@ -8211,7 +8166,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="452" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:2" ht="15" thickBot="1">
       <c r="A452" s="2">
         <v>21</v>
       </c>
@@ -8219,7 +8174,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="453" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:2" ht="15" thickBot="1">
       <c r="A453" s="2">
         <v>21</v>
       </c>
@@ -8227,7 +8182,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="454" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:2" ht="15" thickBot="1">
       <c r="A454" s="2">
         <v>21</v>
       </c>
@@ -8235,7 +8190,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="455" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:2" ht="15" thickBot="1">
       <c r="A455" s="2">
         <v>21</v>
       </c>
@@ -8243,7 +8198,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="456" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:2" ht="15" thickBot="1">
       <c r="A456" s="2">
         <v>21</v>
       </c>
@@ -8251,7 +8206,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="457" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:2" ht="15" thickBot="1">
       <c r="A457" s="2">
         <v>21</v>
       </c>
@@ -8259,7 +8214,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="458" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:2" ht="15" thickBot="1">
       <c r="A458" s="2">
         <v>21</v>
       </c>
@@ -8267,7 +8222,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="459" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:2" ht="15" thickBot="1">
       <c r="A459" s="2">
         <v>20</v>
       </c>
@@ -8275,7 +8230,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="460" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:2" ht="15" thickBot="1">
       <c r="A460" s="2">
         <v>46</v>
       </c>
@@ -8283,7 +8238,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="461" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:2" ht="15" thickBot="1">
       <c r="A461" s="2">
         <v>46</v>
       </c>
@@ -8291,7 +8246,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="462" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:2" ht="15" thickBot="1">
       <c r="A462" s="2">
         <v>29</v>
       </c>
@@ -8299,7 +8254,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="463" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:2" ht="15" thickBot="1">
       <c r="A463" s="2">
         <v>29</v>
       </c>
@@ -8307,7 +8262,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="464" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:2" ht="15" thickBot="1">
       <c r="A464" s="2">
         <v>29</v>
       </c>
@@ -8315,7 +8270,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="465" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:2" ht="15" thickBot="1">
       <c r="A465" s="2">
         <v>56</v>
       </c>
@@ -8323,7 +8278,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="466" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:2" ht="15" thickBot="1">
       <c r="A466" s="2">
         <v>21</v>
       </c>
@@ -8331,7 +8286,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="467" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:2" ht="15" thickBot="1">
       <c r="A467" s="2">
         <v>20</v>
       </c>
@@ -8339,7 +8294,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="468" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:2" ht="15" thickBot="1">
       <c r="A468" s="2">
         <v>21</v>
       </c>
@@ -8347,7 +8302,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="469" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:2" ht="15" thickBot="1">
       <c r="A469" s="2">
         <v>36</v>
       </c>
@@ -8355,7 +8310,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="470" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:2" ht="15" thickBot="1">
       <c r="A470" s="2">
         <v>21</v>
       </c>
@@ -8363,7 +8318,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="471" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:2" ht="15" thickBot="1">
       <c r="A471" s="2">
         <v>56</v>
       </c>
@@ -8371,7 +8326,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="472" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:2" ht="15" thickBot="1">
       <c r="A472" s="2">
         <v>56</v>
       </c>
@@ -8379,7 +8334,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="473" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:2" ht="15" thickBot="1">
       <c r="A473" s="2">
         <v>56</v>
       </c>
@@ -8387,7 +8342,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="474" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:2" ht="15" thickBot="1">
       <c r="A474" s="2">
         <v>21</v>
       </c>
@@ -8395,7 +8350,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="475" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:2" ht="15" thickBot="1">
       <c r="A475" s="2">
         <v>21</v>
       </c>
@@ -8403,7 +8358,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="476" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:2" ht="15" thickBot="1">
       <c r="A476" s="2">
         <v>21</v>
       </c>
@@ -8411,7 +8366,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="477" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:2" ht="15" thickBot="1">
       <c r="A477" s="2">
         <v>10</v>
       </c>
@@ -8419,7 +8374,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="478" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:2" ht="15" thickBot="1">
       <c r="A478" s="2">
         <v>21</v>
       </c>
@@ -8427,7 +8382,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="479" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:2" ht="15" thickBot="1">
       <c r="A479" s="2">
         <v>22</v>
       </c>
@@ -8435,7 +8390,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="480" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:2" ht="15" thickBot="1">
       <c r="A480" s="2">
         <v>21</v>
       </c>
@@ -8443,7 +8398,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="481" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:2" ht="15" thickBot="1">
       <c r="A481" s="2">
         <v>21</v>
       </c>
@@ -8451,7 +8406,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="482" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:2" ht="15" thickBot="1">
       <c r="A482" s="2">
         <v>14</v>
       </c>
@@ -8459,7 +8414,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="483" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:2" ht="15" thickBot="1">
       <c r="A483" s="2">
         <v>25</v>
       </c>
@@ -8467,7 +8422,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="484" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:2" ht="15" thickBot="1">
       <c r="A484" s="2">
         <v>21</v>
       </c>
@@ -8475,7 +8430,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="485" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:2" ht="15" thickBot="1">
       <c r="A485" s="2">
         <v>10</v>
       </c>
@@ -8483,7 +8438,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="486" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:2" ht="15" thickBot="1">
       <c r="A486" s="2">
         <v>21</v>
       </c>
@@ -8491,7 +8446,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="487" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:2" ht="15" thickBot="1">
       <c r="A487" s="2">
         <v>27</v>
       </c>
@@ -8499,7 +8454,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="488" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:2" ht="15" thickBot="1">
       <c r="A488" s="2">
         <v>21</v>
       </c>
@@ -8507,7 +8462,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="489" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:2" ht="15" thickBot="1">
       <c r="A489" s="2">
         <v>8</v>
       </c>
@@ -8515,7 +8470,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="490" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:2" ht="15" thickBot="1">
       <c r="A490" s="2">
         <v>8</v>
       </c>
@@ -8523,7 +8478,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="491" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:2" ht="15" thickBot="1">
       <c r="A491" s="2">
         <v>16</v>
       </c>
@@ -8531,7 +8486,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="492" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:2" ht="15" thickBot="1">
       <c r="A492" s="2">
         <v>21</v>
       </c>
@@ -8539,7 +8494,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="493" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:2" ht="15" thickBot="1">
       <c r="A493" s="2">
         <v>21</v>
       </c>
@@ -8547,7 +8502,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="494" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:2" ht="15" thickBot="1">
       <c r="A494" s="2">
         <v>16</v>
       </c>
@@ -8555,7 +8510,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="495" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:2" ht="15" thickBot="1">
       <c r="A495" s="2">
         <v>16</v>
       </c>
@@ -8563,7 +8518,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="496" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:2" ht="15" thickBot="1">
       <c r="A496" s="2">
         <v>16</v>
       </c>
@@ -8574,96 +8529,86 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="A1:B9"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="23.5" customWidth="1"/>
+    <col min="2" max="2" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15" thickBot="1">
       <c r="A1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B1" s="2">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15" thickBot="1">
       <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" thickBot="1">
       <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="15" thickBot="1">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="15" thickBot="1">
       <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="15" thickBot="1">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="52.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="2">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="2">
-        <v>1</v>
+      <c r="B6" s="3">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A1:B9">
+    <sortCondition ref="B1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/figures/figure_xlsx/figures-Dan.xlsx
+++ b/figures/figure_xlsx/figures-Dan.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>translation suggestion</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>translation</t>
+  </si>
+  <si>
+    <t>pronounciation</t>
   </si>
 </sst>
 </file>
@@ -223,11 +226,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2125639240"/>
-        <c:axId val="2125644840"/>
+        <c:axId val="2102545704"/>
+        <c:axId val="2101383512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2125639240"/>
+        <c:axId val="2102545704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -250,13 +253,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125644840"/>
+        <c:crossAx val="2101383512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -264,7 +266,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2125644840"/>
+        <c:axId val="2101383512"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -288,14 +290,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125639240"/>
+        <c:crossAx val="2102545704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -436,11 +437,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2125667288"/>
-        <c:axId val="2125672808"/>
+        <c:axId val="2102521288"/>
+        <c:axId val="2102518264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2125667288"/>
+        <c:axId val="2102521288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -459,7 +460,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2125672808"/>
+        <c:crossAx val="2102518264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -467,7 +468,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2125672808"/>
+        <c:axId val="2102518264"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -492,14 +493,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125667288"/>
+        <c:crossAx val="2102521288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3553,11 +3553,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2141335032"/>
-        <c:axId val="-2141329624"/>
+        <c:axId val="2104060552"/>
+        <c:axId val="2104065960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2141335032"/>
+        <c:axId val="2104060552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3579,19 +3579,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141329624"/>
+        <c:crossAx val="2104065960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2141329624"/>
+        <c:axId val="2104065960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3619,14 +3618,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141335032"/>
+        <c:crossAx val="2104060552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3686,7 +3684,7 @@
                   <c:v>alternatives</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>text to speech</c:v>
+                  <c:v>pronounciation</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>translation</c:v>
@@ -3732,11 +3730,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2141288152"/>
-        <c:axId val="-2141282728"/>
+        <c:axId val="2104110840"/>
+        <c:axId val="2104116264"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2141288152"/>
+        <c:axId val="2104110840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3764,7 +3762,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141282728"/>
+        <c:crossAx val="2104116264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3772,7 +3770,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2141282728"/>
+        <c:axId val="2104116264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3802,7 +3800,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141288152"/>
+        <c:crossAx val="2104110840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3887,7 +3885,7 @@
                   <c:v>alternatives</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>text to speech</c:v>
+                  <c:v>pronounciation</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>translation</c:v>
@@ -3933,11 +3931,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2141252120"/>
-        <c:axId val="-2141246392"/>
+        <c:axId val="2104141688"/>
+        <c:axId val="2104149704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2141252120"/>
+        <c:axId val="2104141688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3956,7 +3954,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2141246392"/>
+        <c:crossAx val="2104149704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3964,7 +3962,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2141246392"/>
+        <c:axId val="2104149704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3994,7 +3992,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2141252120"/>
+        <c:crossAx val="2104141688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -8542,7 +8540,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -8585,7 +8583,7 @@
     </row>
     <row r="5" spans="1:2" ht="15" thickBot="1">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B5" s="3">
         <v>45</v>

--- a/figures/figure_xlsx/figures-Dan.xlsx
+++ b/figures/figure_xlsx/figures-Dan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="80" windowWidth="27800" windowHeight="11080" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="80" windowWidth="27800" windowHeight="11080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>translation suggestion</t>
   </si>
@@ -30,9 +30,6 @@
   </si>
   <si>
     <t>undo</t>
-  </si>
-  <si>
-    <t>text to speech</t>
   </si>
   <si>
     <t>alternatives</t>
@@ -177,7 +174,7 @@
                   <c:v>undo</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>text to speech</c:v>
+                  <c:v>pronounciation</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>alternatives</c:v>
@@ -253,6 +250,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
@@ -290,6 +288,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -388,7 +387,7 @@
                   <c:v>undo</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>text to speech</c:v>
+                  <c:v>pronounciation</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>alternatives</c:v>
@@ -493,6 +492,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4473,8 +4473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -4509,7 +4509,7 @@
     </row>
     <row r="4" spans="1:2" ht="15" thickBot="1">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2">
         <v>296</v>
@@ -4517,7 +4517,7 @@
     </row>
     <row r="5" spans="1:2" ht="15" thickBot="1">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="2">
         <v>1146</v>
@@ -4525,7 +4525,7 @@
     </row>
     <row r="6" spans="1:2" ht="15" thickBot="1">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2">
         <v>6721</v>
@@ -8539,8 +8539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -8575,7 +8575,7 @@
     </row>
     <row r="4" spans="1:2" ht="15" thickBot="1">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3">
         <v>45</v>
@@ -8583,7 +8583,7 @@
     </row>
     <row r="5" spans="1:2" ht="15" thickBot="1">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="3">
         <v>45</v>
@@ -8591,7 +8591,7 @@
     </row>
     <row r="6" spans="1:2" ht="15" thickBot="1">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3">
         <v>57</v>
